--- a/DSA/FINAL450.xlsx
+++ b/DSA/FINAL450.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2453\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33C82736-9654-4B89-9743-82954071747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{33C82736-9654-4B89-9743-82954071747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3AD19B2-6CD9-4786-913C-D01F1AE10C6E}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA Practice" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DSA Practice'!$A$1:$IV$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="491">
   <si>
     <t>Topic</t>
   </si>
@@ -5470,15 +5473,28 @@
       </rPr>
       <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
     </r>
+  </si>
+  <si>
+    <t>last node in the left most path is the smallest element in a BST</t>
+  </si>
+  <si>
+    <t>set pre and suc before calling recursive call to search on right and left subtree respectively</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inorder traversal and check if count == k (O(n) auxiliary space cuz of stack); change the BST implementation to include lCount, i.e count of number of elements in the left subtree; morris traversal </t>
+  </si>
+  <si>
+    <t>Store inorder traversal in array, sort the array, and again do inorder traversal and store new values in the tree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="d/m/yy"/>
+    <numFmt numFmtId="166" formatCode="[$-14009]dd/mm/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -5688,7 +5704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5775,6 +5791,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6248,26 +6279,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:IV451"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="100.41015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.8671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.89453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.0390625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.35546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.171875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.49609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.57421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33984375" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.14453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.34375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="256" width="9.30078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6277,7 +6309,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -6290,7 +6322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -6303,7 +6335,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -6316,7 +6348,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -6329,7 +6361,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -6342,7 +6374,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -6355,7 +6387,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -6368,7 +6400,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -6381,7 +6413,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -6394,7 +6426,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -6407,7 +6439,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -6420,7 +6452,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -6433,7 +6465,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
@@ -6446,7 +6478,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -6459,7 +6491,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -6472,7 +6504,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
@@ -6485,7 +6517,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
@@ -6498,7 +6530,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -6511,7 +6543,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -6524,7 +6556,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -6537,7 +6569,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -6550,7 +6582,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>7</v>
       </c>
@@ -6563,7 +6595,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
@@ -6576,7 +6608,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>7</v>
       </c>
@@ -6589,7 +6621,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
@@ -6602,7 +6634,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>7</v>
       </c>
@@ -6615,7 +6647,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>7</v>
       </c>
@@ -6628,7 +6660,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
@@ -6641,7 +6673,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -6654,7 +6686,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>7</v>
       </c>
@@ -6667,7 +6699,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>7</v>
       </c>
@@ -6680,7 +6712,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>7</v>
       </c>
@@ -6693,7 +6725,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -6706,7 +6738,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>7</v>
       </c>
@@ -6719,7 +6751,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>7</v>
       </c>
@@ -6732,7 +6764,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>7</v>
       </c>
@@ -6745,7 +6777,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>7</v>
       </c>
@@ -6758,7 +6790,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -6771,7 +6803,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -6784,7 +6816,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>44</v>
       </c>
@@ -6797,7 +6829,7 @@
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>44</v>
       </c>
@@ -6810,7 +6842,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>44</v>
       </c>
@@ -6823,7 +6855,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>44</v>
       </c>
@@ -6836,7 +6868,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>44</v>
       </c>
@@ -6849,7 +6881,7 @@
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
@@ -6862,7 +6894,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>44</v>
       </c>
@@ -6875,7 +6907,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>44</v>
       </c>
@@ -6888,7 +6920,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>55</v>
       </c>
@@ -6901,7 +6933,7 @@
       <c r="F48" s="16"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>55</v>
       </c>
@@ -6914,7 +6946,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>55</v>
       </c>
@@ -6927,7 +6959,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>55</v>
       </c>
@@ -6940,7 +6972,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>55</v>
       </c>
@@ -6953,7 +6985,7 @@
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>55</v>
       </c>
@@ -6966,7 +6998,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>55</v>
       </c>
@@ -6979,7 +7011,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>55</v>
       </c>
@@ -6992,7 +7024,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
@@ -7005,7 +7037,7 @@
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
@@ -7018,7 +7050,7 @@
       <c r="F57" s="11"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>55</v>
       </c>
@@ -7031,7 +7063,7 @@
       <c r="F58" s="16"/>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>55</v>
       </c>
@@ -7044,7 +7076,7 @@
       <c r="F59" s="11"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>55</v>
       </c>
@@ -7057,7 +7089,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>55</v>
       </c>
@@ -7070,7 +7102,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>55</v>
       </c>
@@ -7083,7 +7115,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>55</v>
       </c>
@@ -7096,7 +7128,7 @@
       <c r="F63" s="11"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>55</v>
       </c>
@@ -7109,7 +7141,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>55</v>
       </c>
@@ -7122,7 +7154,7 @@
       <c r="F65" s="11"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>55</v>
       </c>
@@ -7135,7 +7167,7 @@
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>55</v>
       </c>
@@ -7148,7 +7180,7 @@
       <c r="F67" s="11"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>55</v>
       </c>
@@ -7161,7 +7193,7 @@
       <c r="F68" s="16"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>55</v>
       </c>
@@ -7174,7 +7206,7 @@
       <c r="F69" s="11"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>55</v>
       </c>
@@ -7187,7 +7219,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>55</v>
       </c>
@@ -7200,7 +7232,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>55</v>
       </c>
@@ -7213,7 +7245,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>55</v>
       </c>
@@ -7226,7 +7258,7 @@
       <c r="F73" s="11"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>55</v>
       </c>
@@ -7239,7 +7271,7 @@
       <c r="F74" s="16"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>55</v>
       </c>
@@ -7252,7 +7284,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>55</v>
       </c>
@@ -7265,7 +7297,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>55</v>
       </c>
@@ -7278,7 +7310,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>55</v>
       </c>
@@ -7291,7 +7323,7 @@
       <c r="F78" s="16"/>
       <c r="G78" s="17"/>
     </row>
-    <row r="79" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>55</v>
       </c>
@@ -7304,7 +7336,7 @@
       <c r="F79" s="11"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>55</v>
       </c>
@@ -7317,7 +7349,7 @@
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
     </row>
-    <row r="81" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>55</v>
       </c>
@@ -7330,7 +7362,7 @@
       <c r="F81" s="11"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>55</v>
       </c>
@@ -7343,7 +7375,7 @@
       <c r="F82" s="16"/>
       <c r="G82" s="17"/>
     </row>
-    <row r="83" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>55</v>
       </c>
@@ -7356,7 +7388,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>55</v>
       </c>
@@ -7369,7 +7401,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
     </row>
-    <row r="85" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>55</v>
       </c>
@@ -7382,7 +7414,7 @@
       <c r="F85" s="11"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>55</v>
       </c>
@@ -7395,7 +7427,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="17"/>
     </row>
-    <row r="87" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>55</v>
       </c>
@@ -7408,7 +7440,7 @@
       <c r="F87" s="11"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>55</v>
       </c>
@@ -7421,7 +7453,7 @@
       <c r="F88" s="16"/>
       <c r="G88" s="17"/>
     </row>
-    <row r="89" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>55</v>
       </c>
@@ -7434,7 +7466,7 @@
       <c r="F89" s="11"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>55</v>
       </c>
@@ -7447,7 +7479,7 @@
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
     </row>
-    <row r="91" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>99</v>
       </c>
@@ -7460,7 +7492,7 @@
       <c r="F91" s="11"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>99</v>
       </c>
@@ -7473,7 +7505,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="17"/>
     </row>
-    <row r="93" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>99</v>
       </c>
@@ -7486,7 +7518,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>99</v>
       </c>
@@ -7499,7 +7531,7 @@
       <c r="F94" s="16"/>
       <c r="G94" s="17"/>
     </row>
-    <row r="95" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>99</v>
       </c>
@@ -7512,7 +7544,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>99</v>
       </c>
@@ -7525,7 +7557,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="17"/>
     </row>
-    <row r="97" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>99</v>
       </c>
@@ -7538,7 +7570,7 @@
       <c r="F97" s="11"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>99</v>
       </c>
@@ -7551,7 +7583,7 @@
       <c r="F98" s="16"/>
       <c r="G98" s="17"/>
     </row>
-    <row r="99" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>99</v>
       </c>
@@ -7564,7 +7596,7 @@
       <c r="F99" s="11"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>99</v>
       </c>
@@ -7577,7 +7609,7 @@
       <c r="F100" s="16"/>
       <c r="G100" s="17"/>
     </row>
-    <row r="101" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>99</v>
       </c>
@@ -7590,7 +7622,7 @@
       <c r="F101" s="11"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>99</v>
       </c>
@@ -7603,7 +7635,7 @@
       <c r="F102" s="16"/>
       <c r="G102" s="17"/>
     </row>
-    <row r="103" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>99</v>
       </c>
@@ -7616,7 +7648,7 @@
       <c r="F103" s="11"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>99</v>
       </c>
@@ -7629,7 +7661,7 @@
       <c r="F104" s="16"/>
       <c r="G104" s="17"/>
     </row>
-    <row r="105" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>99</v>
       </c>
@@ -7642,7 +7674,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>99</v>
       </c>
@@ -7655,7 +7687,7 @@
       <c r="F106" s="16"/>
       <c r="G106" s="17"/>
     </row>
-    <row r="107" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>99</v>
       </c>
@@ -7668,7 +7700,7 @@
       <c r="F107" s="11"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>99</v>
       </c>
@@ -7681,7 +7713,7 @@
       <c r="F108" s="16"/>
       <c r="G108" s="17"/>
     </row>
-    <row r="109" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>99</v>
       </c>
@@ -7694,7 +7726,7 @@
       <c r="F109" s="11"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>99</v>
       </c>
@@ -7707,7 +7739,7 @@
       <c r="F110" s="16"/>
       <c r="G110" s="17"/>
     </row>
-    <row r="111" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>99</v>
       </c>
@@ -7720,7 +7752,7 @@
       <c r="F111" s="11"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>99</v>
       </c>
@@ -7733,7 +7765,7 @@
       <c r="F112" s="16"/>
       <c r="G112" s="17"/>
     </row>
-    <row r="113" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>99</v>
       </c>
@@ -7746,7 +7778,7 @@
       <c r="F113" s="11"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>99</v>
       </c>
@@ -7759,7 +7791,7 @@
       <c r="F114" s="16"/>
       <c r="G114" s="17"/>
     </row>
-    <row r="115" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>99</v>
       </c>
@@ -7772,7 +7804,7 @@
       <c r="F115" s="11"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
         <v>99</v>
       </c>
@@ -7785,7 +7817,7 @@
       <c r="F116" s="16"/>
       <c r="G116" s="17"/>
     </row>
-    <row r="117" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>99</v>
       </c>
@@ -7798,7 +7830,7 @@
       <c r="F117" s="11"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
         <v>99</v>
       </c>
@@ -7811,7 +7843,7 @@
       <c r="F118" s="16"/>
       <c r="G118" s="17"/>
     </row>
-    <row r="119" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>99</v>
       </c>
@@ -7824,7 +7856,7 @@
       <c r="F119" s="11"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
         <v>99</v>
       </c>
@@ -7837,7 +7869,7 @@
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
     </row>
-    <row r="121" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>99</v>
       </c>
@@ -7850,7 +7882,7 @@
       <c r="F121" s="11"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>99</v>
       </c>
@@ -7863,7 +7895,7 @@
       <c r="F122" s="16"/>
       <c r="G122" s="17"/>
     </row>
-    <row r="123" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>99</v>
       </c>
@@ -7876,7 +7908,7 @@
       <c r="F123" s="11"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>99</v>
       </c>
@@ -7889,7 +7921,7 @@
       <c r="F124" s="16"/>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>99</v>
       </c>
@@ -7902,7 +7934,7 @@
       <c r="F125" s="11"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>99</v>
       </c>
@@ -7915,7 +7947,7 @@
       <c r="F126" s="16"/>
       <c r="G126" s="17"/>
     </row>
-    <row r="127" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>136</v>
       </c>
@@ -7928,7 +7960,7 @@
       <c r="F127" s="11"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>136</v>
       </c>
@@ -7941,7 +7973,7 @@
       <c r="F128" s="16"/>
       <c r="G128" s="17"/>
     </row>
-    <row r="129" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>136</v>
       </c>
@@ -7954,7 +7986,7 @@
       <c r="F129" s="11"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>136</v>
       </c>
@@ -7967,7 +7999,7 @@
       <c r="F130" s="16"/>
       <c r="G130" s="17"/>
     </row>
-    <row r="131" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>136</v>
       </c>
@@ -7980,7 +8012,7 @@
       <c r="F131" s="11"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>136</v>
       </c>
@@ -7993,7 +8025,7 @@
       <c r="F132" s="16"/>
       <c r="G132" s="17"/>
     </row>
-    <row r="133" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>136</v>
       </c>
@@ -8006,7 +8038,7 @@
       <c r="F133" s="11"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>136</v>
       </c>
@@ -8019,7 +8051,7 @@
       <c r="F134" s="16"/>
       <c r="G134" s="17"/>
     </row>
-    <row r="135" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>136</v>
       </c>
@@ -8032,7 +8064,7 @@
       <c r="F135" s="11"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>136</v>
       </c>
@@ -8045,7 +8077,7 @@
       <c r="F136" s="16"/>
       <c r="G136" s="17"/>
     </row>
-    <row r="137" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>136</v>
       </c>
@@ -8058,7 +8090,7 @@
       <c r="F137" s="11"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>136</v>
       </c>
@@ -8071,7 +8103,7 @@
       <c r="F138" s="16"/>
       <c r="G138" s="17"/>
     </row>
-    <row r="139" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>136</v>
       </c>
@@ -8084,7 +8116,7 @@
       <c r="F139" s="11"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>136</v>
       </c>
@@ -8097,7 +8129,7 @@
       <c r="F140" s="16"/>
       <c r="G140" s="17"/>
     </row>
-    <row r="141" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>136</v>
       </c>
@@ -8110,7 +8142,7 @@
       <c r="F141" s="11"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>136</v>
       </c>
@@ -8123,7 +8155,7 @@
       <c r="F142" s="16"/>
       <c r="G142" s="17"/>
     </row>
-    <row r="143" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>136</v>
       </c>
@@ -8136,7 +8168,7 @@
       <c r="F143" s="11"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>136</v>
       </c>
@@ -8149,7 +8181,7 @@
       <c r="F144" s="16"/>
       <c r="G144" s="17"/>
     </row>
-    <row r="145" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>136</v>
       </c>
@@ -8162,7 +8194,7 @@
       <c r="F145" s="11"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>136</v>
       </c>
@@ -8175,7 +8207,7 @@
       <c r="F146" s="16"/>
       <c r="G146" s="17"/>
     </row>
-    <row r="147" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>136</v>
       </c>
@@ -8188,7 +8220,7 @@
       <c r="F147" s="11"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>136</v>
       </c>
@@ -8201,7 +8233,7 @@
       <c r="F148" s="16"/>
       <c r="G148" s="17"/>
     </row>
-    <row r="149" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>136</v>
       </c>
@@ -8214,7 +8246,7 @@
       <c r="F149" s="11"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>136</v>
       </c>
@@ -8227,7 +8259,7 @@
       <c r="F150" s="16"/>
       <c r="G150" s="17"/>
     </row>
-    <row r="151" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>136</v>
       </c>
@@ -8240,7 +8272,7 @@
       <c r="F151" s="11"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>136</v>
       </c>
@@ -8253,7 +8285,7 @@
       <c r="F152" s="16"/>
       <c r="G152" s="17"/>
     </row>
-    <row r="153" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>136</v>
       </c>
@@ -8266,7 +8298,7 @@
       <c r="F153" s="11"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>136</v>
       </c>
@@ -8279,7 +8311,7 @@
       <c r="F154" s="16"/>
       <c r="G154" s="17"/>
     </row>
-    <row r="155" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>136</v>
       </c>
@@ -8292,7 +8324,7 @@
       <c r="F155" s="11"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>136</v>
       </c>
@@ -8305,7 +8337,7 @@
       <c r="F156" s="16"/>
       <c r="G156" s="17"/>
     </row>
-    <row r="157" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>136</v>
       </c>
@@ -8318,7 +8350,7 @@
       <c r="F157" s="11"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>136</v>
       </c>
@@ -8331,7 +8363,7 @@
       <c r="F158" s="16"/>
       <c r="G158" s="17"/>
     </row>
-    <row r="159" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>136</v>
       </c>
@@ -8344,7 +8376,7 @@
       <c r="F159" s="11"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>136</v>
       </c>
@@ -8357,7 +8389,7 @@
       <c r="F160" s="16"/>
       <c r="G160" s="17"/>
     </row>
-    <row r="161" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>136</v>
       </c>
@@ -8370,7 +8402,7 @@
       <c r="F161" s="11"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>136</v>
       </c>
@@ -8383,7 +8415,7 @@
       <c r="F162" s="16"/>
       <c r="G162" s="17"/>
     </row>
-    <row r="163" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>173</v>
       </c>
@@ -8396,7 +8428,7 @@
       <c r="F163" s="11"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>173</v>
       </c>
@@ -8409,7 +8441,7 @@
       <c r="F164" s="16"/>
       <c r="G164" s="17"/>
     </row>
-    <row r="165" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>173</v>
       </c>
@@ -8422,7 +8454,7 @@
       <c r="F165" s="11"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>173</v>
       </c>
@@ -8435,7 +8467,7 @@
       <c r="F166" s="16"/>
       <c r="G166" s="17"/>
     </row>
-    <row r="167" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>173</v>
       </c>
@@ -8448,7 +8480,7 @@
       <c r="F167" s="11"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>173</v>
       </c>
@@ -8461,7 +8493,7 @@
       <c r="F168" s="16"/>
       <c r="G168" s="17"/>
     </row>
-    <row r="169" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>173</v>
       </c>
@@ -8474,7 +8506,7 @@
       <c r="F169" s="11"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>173</v>
       </c>
@@ -8487,7 +8519,7 @@
       <c r="F170" s="16"/>
       <c r="G170" s="17"/>
     </row>
-    <row r="171" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>173</v>
       </c>
@@ -8500,7 +8532,7 @@
       <c r="F171" s="11"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>173</v>
       </c>
@@ -8513,7 +8545,7 @@
       <c r="F172" s="16"/>
       <c r="G172" s="17"/>
     </row>
-    <row r="173" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>173</v>
       </c>
@@ -8526,7 +8558,7 @@
       <c r="F173" s="11"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>173</v>
       </c>
@@ -8539,7 +8571,7 @@
       <c r="F174" s="16"/>
       <c r="G174" s="17"/>
     </row>
-    <row r="175" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>173</v>
       </c>
@@ -8552,7 +8584,7 @@
       <c r="F175" s="11"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>173</v>
       </c>
@@ -8565,7 +8597,7 @@
       <c r="F176" s="16"/>
       <c r="G176" s="17"/>
     </row>
-    <row r="177" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>173</v>
       </c>
@@ -8578,7 +8610,7 @@
       <c r="F177" s="11"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>173</v>
       </c>
@@ -8591,7 +8623,7 @@
       <c r="F178" s="16"/>
       <c r="G178" s="17"/>
     </row>
-    <row r="179" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>173</v>
       </c>
@@ -8604,7 +8636,7 @@
       <c r="F179" s="11"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>173</v>
       </c>
@@ -8617,7 +8649,7 @@
       <c r="F180" s="16"/>
       <c r="G180" s="17"/>
     </row>
-    <row r="181" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>173</v>
       </c>
@@ -8630,7 +8662,7 @@
       <c r="F181" s="11"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>173</v>
       </c>
@@ -8643,7 +8675,7 @@
       <c r="F182" s="16"/>
       <c r="G182" s="17"/>
     </row>
-    <row r="183" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>173</v>
       </c>
@@ -8656,7 +8688,7 @@
       <c r="F183" s="11"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>173</v>
       </c>
@@ -8669,7 +8701,7 @@
       <c r="F184" s="16"/>
       <c r="G184" s="17"/>
     </row>
-    <row r="185" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>173</v>
       </c>
@@ -8682,7 +8714,7 @@
       <c r="F185" s="11"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>173</v>
       </c>
@@ -8695,7 +8727,7 @@
       <c r="F186" s="16"/>
       <c r="G186" s="17"/>
     </row>
-    <row r="187" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>173</v>
       </c>
@@ -8708,7 +8740,7 @@
       <c r="F187" s="11"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
         <v>173</v>
       </c>
@@ -8721,7 +8753,7 @@
       <c r="F188" s="16"/>
       <c r="G188" s="17"/>
     </row>
-    <row r="189" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>173</v>
       </c>
@@ -8734,7 +8766,7 @@
       <c r="F189" s="11"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
         <v>173</v>
       </c>
@@ -8747,7 +8779,7 @@
       <c r="F190" s="16"/>
       <c r="G190" s="17"/>
     </row>
-    <row r="191" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>173</v>
       </c>
@@ -8760,7 +8792,7 @@
       <c r="F191" s="11"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>173</v>
       </c>
@@ -8773,7 +8805,7 @@
       <c r="F192" s="16"/>
       <c r="G192" s="17"/>
     </row>
-    <row r="193" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>173</v>
       </c>
@@ -8786,7 +8818,7 @@
       <c r="F193" s="11"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>173</v>
       </c>
@@ -8799,7 +8831,7 @@
       <c r="F194" s="16"/>
       <c r="G194" s="17"/>
     </row>
-    <row r="195" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>173</v>
       </c>
@@ -8812,7 +8844,7 @@
       <c r="F195" s="11"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>173</v>
       </c>
@@ -8825,7 +8857,7 @@
       <c r="F196" s="16"/>
       <c r="G196" s="17"/>
     </row>
-    <row r="197" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>173</v>
       </c>
@@ -8838,7 +8870,7 @@
       <c r="F197" s="11"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A198" s="13" t="s">
         <v>209</v>
       </c>
@@ -8848,8 +8880,8 @@
       <c r="C198" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D198" s="19">
-        <v>44716</v>
+      <c r="D198" s="31">
+        <v>44685</v>
       </c>
       <c r="E198" s="14" t="s">
         <v>212</v>
@@ -8861,7 +8893,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>209</v>
       </c>
@@ -8871,7 +8903,7 @@
       <c r="C199" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="21">
+      <c r="D199" s="32">
         <v>44716</v>
       </c>
       <c r="E199" s="10" t="s">
@@ -8884,33 +8916,54 @@
         <v>216</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A200" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B200" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C200" s="15"/>
-      <c r="D200" s="16"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="16"/>
-      <c r="G200" s="17"/>
-    </row>
-    <row r="201" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D200" s="31">
+        <v>44717</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F200" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G200" s="17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="66.75" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C201" s="18"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="11"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="12"/>
-    </row>
-    <row r="202" spans="1:7" ht="92.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C201" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D201" s="32">
+        <f ca="1">TODAY()</f>
+        <v>44717</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="66.75" x14ac:dyDescent="0.3">
       <c r="A202" s="13" t="s">
         <v>209</v>
       </c>
@@ -8920,7 +8973,7 @@
       <c r="C202" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D202" s="19">
+      <c r="D202" s="31">
         <v>44716</v>
       </c>
       <c r="E202" s="14" t="s">
@@ -8933,228 +8986,250 @@
         <v>221</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C203" s="18"/>
-      <c r="D203" s="11"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="32"/>
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A204" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B204" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C204" s="15"/>
-      <c r="D204" s="16"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="31"/>
       <c r="E204" s="16"/>
       <c r="F204" s="16"/>
       <c r="G204" s="17"/>
     </row>
-    <row r="205" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B205" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C205" s="18"/>
-      <c r="D205" s="11"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="32"/>
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="66.75" x14ac:dyDescent="0.3">
       <c r="A206" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B206" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C206" s="15"/>
-      <c r="D206" s="16"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="16"/>
-      <c r="G206" s="17"/>
-    </row>
-    <row r="207" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D206" s="31">
+        <f ca="1">TODAY()</f>
+        <v>44717</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F206" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G206" s="17" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C207" s="18"/>
-      <c r="D207" s="11"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="32"/>
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A208" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C208" s="15"/>
-      <c r="D208" s="16"/>
+      <c r="C208" s="14"/>
+      <c r="D208" s="31"/>
       <c r="E208" s="16"/>
       <c r="F208" s="16"/>
       <c r="G208" s="17"/>
     </row>
-    <row r="209" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C209" s="18"/>
-      <c r="D209" s="11"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="32"/>
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A210" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B210" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C210" s="15"/>
-      <c r="D210" s="16"/>
-      <c r="E210" s="16"/>
-      <c r="F210" s="16"/>
-      <c r="G210" s="17"/>
-    </row>
-    <row r="211" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C210" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D210" s="31">
+        <f ca="1">TODAY()</f>
+        <v>44717</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F210" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="G210" s="17" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C211" s="18"/>
-      <c r="D211" s="11"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="32"/>
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A212" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B212" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C212" s="15"/>
-      <c r="D212" s="16"/>
+      <c r="C212" s="14"/>
+      <c r="D212" s="31"/>
       <c r="E212" s="16"/>
       <c r="F212" s="16"/>
       <c r="G212" s="17"/>
     </row>
-    <row r="213" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A213" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C213" s="18"/>
-      <c r="D213" s="11"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="32"/>
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
       <c r="G213" s="12"/>
     </row>
-    <row r="214" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A214" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B214" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C214" s="15"/>
-      <c r="D214" s="16"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="31"/>
       <c r="E214" s="16"/>
       <c r="F214" s="16"/>
       <c r="G214" s="17"/>
     </row>
-    <row r="215" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B215" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C215" s="18"/>
-      <c r="D215" s="11"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="32"/>
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A216" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B216" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C216" s="15"/>
-      <c r="D216" s="16"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="31"/>
       <c r="E216" s="16"/>
       <c r="F216" s="16"/>
       <c r="G216" s="17"/>
     </row>
-    <row r="217" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C217" s="18"/>
-      <c r="D217" s="11"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="32"/>
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A218" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B218" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C218" s="15"/>
-      <c r="D218" s="16"/>
+      <c r="C218" s="14"/>
+      <c r="D218" s="31"/>
       <c r="E218" s="16"/>
       <c r="F218" s="16"/>
       <c r="G218" s="17"/>
     </row>
-    <row r="219" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C219" s="18"/>
-      <c r="D219" s="11"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="32"/>
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
         <v>239</v>
       </c>
@@ -9167,7 +9242,7 @@
       <c r="F220" s="16"/>
       <c r="G220" s="17"/>
     </row>
-    <row r="221" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>239</v>
       </c>
@@ -9180,7 +9255,7 @@
       <c r="F221" s="11"/>
       <c r="G221" s="12"/>
     </row>
-    <row r="222" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -9193,7 +9268,7 @@
       <c r="F222" s="16"/>
       <c r="G222" s="17"/>
     </row>
-    <row r="223" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>239</v>
       </c>
@@ -9206,7 +9281,7 @@
       <c r="F223" s="11"/>
       <c r="G223" s="12"/>
     </row>
-    <row r="224" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
         <v>239</v>
       </c>
@@ -9219,7 +9294,7 @@
       <c r="F224" s="16"/>
       <c r="G224" s="17"/>
     </row>
-    <row r="225" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>239</v>
       </c>
@@ -9232,7 +9307,7 @@
       <c r="F225" s="11"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
         <v>239</v>
       </c>
@@ -9245,7 +9320,7 @@
       <c r="F226" s="16"/>
       <c r="G226" s="17"/>
     </row>
-    <row r="227" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>239</v>
       </c>
@@ -9258,7 +9333,7 @@
       <c r="F227" s="11"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
         <v>239</v>
       </c>
@@ -9271,7 +9346,7 @@
       <c r="F228" s="16"/>
       <c r="G228" s="17"/>
     </row>
-    <row r="229" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>239</v>
       </c>
@@ -9284,7 +9359,7 @@
       <c r="F229" s="11"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
         <v>239</v>
       </c>
@@ -9297,7 +9372,7 @@
       <c r="F230" s="16"/>
       <c r="G230" s="17"/>
     </row>
-    <row r="231" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>239</v>
       </c>
@@ -9310,7 +9385,7 @@
       <c r="F231" s="11"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
         <v>239</v>
       </c>
@@ -9323,7 +9398,7 @@
       <c r="F232" s="16"/>
       <c r="G232" s="17"/>
     </row>
-    <row r="233" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>239</v>
       </c>
@@ -9336,7 +9411,7 @@
       <c r="F233" s="11"/>
       <c r="G233" s="12"/>
     </row>
-    <row r="234" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
         <v>239</v>
       </c>
@@ -9349,7 +9424,7 @@
       <c r="F234" s="16"/>
       <c r="G234" s="17"/>
     </row>
-    <row r="235" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>239</v>
       </c>
@@ -9362,7 +9437,7 @@
       <c r="F235" s="11"/>
       <c r="G235" s="12"/>
     </row>
-    <row r="236" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
         <v>239</v>
       </c>
@@ -9375,7 +9450,7 @@
       <c r="F236" s="16"/>
       <c r="G236" s="17"/>
     </row>
-    <row r="237" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>239</v>
       </c>
@@ -9388,7 +9463,7 @@
       <c r="F237" s="11"/>
       <c r="G237" s="12"/>
     </row>
-    <row r="238" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
         <v>239</v>
       </c>
@@ -9401,7 +9476,7 @@
       <c r="F238" s="16"/>
       <c r="G238" s="17"/>
     </row>
-    <row r="239" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>239</v>
       </c>
@@ -9414,7 +9489,7 @@
       <c r="F239" s="11"/>
       <c r="G239" s="12"/>
     </row>
-    <row r="240" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
         <v>239</v>
       </c>
@@ -9427,7 +9502,7 @@
       <c r="F240" s="16"/>
       <c r="G240" s="17"/>
     </row>
-    <row r="241" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>239</v>
       </c>
@@ -9440,7 +9515,7 @@
       <c r="F241" s="11"/>
       <c r="G241" s="12"/>
     </row>
-    <row r="242" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
         <v>239</v>
       </c>
@@ -9453,7 +9528,7 @@
       <c r="F242" s="16"/>
       <c r="G242" s="17"/>
     </row>
-    <row r="243" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>239</v>
       </c>
@@ -9466,7 +9541,7 @@
       <c r="F243" s="11"/>
       <c r="G243" s="12"/>
     </row>
-    <row r="244" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
         <v>239</v>
       </c>
@@ -9479,7 +9554,7 @@
       <c r="F244" s="16"/>
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>239</v>
       </c>
@@ -9492,7 +9567,7 @@
       <c r="F245" s="11"/>
       <c r="G245" s="12"/>
     </row>
-    <row r="246" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
         <v>239</v>
       </c>
@@ -9505,7 +9580,7 @@
       <c r="F246" s="16"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>239</v>
       </c>
@@ -9518,7 +9593,7 @@
       <c r="F247" s="11"/>
       <c r="G247" s="12"/>
     </row>
-    <row r="248" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
         <v>239</v>
       </c>
@@ -9531,7 +9606,7 @@
       <c r="F248" s="16"/>
       <c r="G248" s="17"/>
     </row>
-    <row r="249" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>239</v>
       </c>
@@ -9544,7 +9619,7 @@
       <c r="F249" s="11"/>
       <c r="G249" s="12"/>
     </row>
-    <row r="250" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
         <v>239</v>
       </c>
@@ -9557,7 +9632,7 @@
       <c r="F250" s="16"/>
       <c r="G250" s="17"/>
     </row>
-    <row r="251" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>239</v>
       </c>
@@ -9570,7 +9645,7 @@
       <c r="F251" s="11"/>
       <c r="G251" s="12"/>
     </row>
-    <row r="252" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
         <v>239</v>
       </c>
@@ -9583,7 +9658,7 @@
       <c r="F252" s="16"/>
       <c r="G252" s="17"/>
     </row>
-    <row r="253" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>239</v>
       </c>
@@ -9596,7 +9671,7 @@
       <c r="F253" s="11"/>
       <c r="G253" s="12"/>
     </row>
-    <row r="254" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
         <v>239</v>
       </c>
@@ -9609,7 +9684,7 @@
       <c r="F254" s="16"/>
       <c r="G254" s="17"/>
     </row>
-    <row r="255" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>274</v>
       </c>
@@ -9622,7 +9697,7 @@
       <c r="F255" s="11"/>
       <c r="G255" s="12"/>
     </row>
-    <row r="256" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="s">
         <v>274</v>
       </c>
@@ -9635,7 +9710,7 @@
       <c r="F256" s="16"/>
       <c r="G256" s="17"/>
     </row>
-    <row r="257" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>274</v>
       </c>
@@ -9648,7 +9723,7 @@
       <c r="F257" s="11"/>
       <c r="G257" s="12"/>
     </row>
-    <row r="258" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="s">
         <v>274</v>
       </c>
@@ -9661,7 +9736,7 @@
       <c r="F258" s="16"/>
       <c r="G258" s="17"/>
     </row>
-    <row r="259" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>274</v>
       </c>
@@ -9674,7 +9749,7 @@
       <c r="F259" s="11"/>
       <c r="G259" s="12"/>
     </row>
-    <row r="260" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="s">
         <v>274</v>
       </c>
@@ -9687,7 +9762,7 @@
       <c r="F260" s="16"/>
       <c r="G260" s="17"/>
     </row>
-    <row r="261" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>274</v>
       </c>
@@ -9700,7 +9775,7 @@
       <c r="F261" s="11"/>
       <c r="G261" s="12"/>
     </row>
-    <row r="262" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
         <v>274</v>
       </c>
@@ -9713,7 +9788,7 @@
       <c r="F262" s="16"/>
       <c r="G262" s="17"/>
     </row>
-    <row r="263" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>274</v>
       </c>
@@ -9726,7 +9801,7 @@
       <c r="F263" s="11"/>
       <c r="G263" s="12"/>
     </row>
-    <row r="264" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
         <v>274</v>
       </c>
@@ -9739,7 +9814,7 @@
       <c r="F264" s="16"/>
       <c r="G264" s="17"/>
     </row>
-    <row r="265" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>274</v>
       </c>
@@ -9752,7 +9827,7 @@
       <c r="F265" s="11"/>
       <c r="G265" s="12"/>
     </row>
-    <row r="266" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="s">
         <v>274</v>
       </c>
@@ -9765,7 +9840,7 @@
       <c r="F266" s="16"/>
       <c r="G266" s="17"/>
     </row>
-    <row r="267" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>274</v>
       </c>
@@ -9778,7 +9853,7 @@
       <c r="F267" s="11"/>
       <c r="G267" s="12"/>
     </row>
-    <row r="268" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
         <v>274</v>
       </c>
@@ -9791,7 +9866,7 @@
       <c r="F268" s="16"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>274</v>
       </c>
@@ -9804,7 +9879,7 @@
       <c r="F269" s="11"/>
       <c r="G269" s="12"/>
     </row>
-    <row r="270" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="s">
         <v>274</v>
       </c>
@@ -9817,7 +9892,7 @@
       <c r="F270" s="16"/>
       <c r="G270" s="17"/>
     </row>
-    <row r="271" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>274</v>
       </c>
@@ -9830,7 +9905,7 @@
       <c r="F271" s="11"/>
       <c r="G271" s="12"/>
     </row>
-    <row r="272" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="s">
         <v>274</v>
       </c>
@@ -9843,7 +9918,7 @@
       <c r="F272" s="16"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>274</v>
       </c>
@@ -9856,7 +9931,7 @@
       <c r="F273" s="11"/>
       <c r="G273" s="12"/>
     </row>
-    <row r="274" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="s">
         <v>294</v>
       </c>
@@ -9869,7 +9944,7 @@
       <c r="F274" s="16"/>
       <c r="G274" s="17"/>
     </row>
-    <row r="275" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>294</v>
       </c>
@@ -9882,7 +9957,7 @@
       <c r="F275" s="11"/>
       <c r="G275" s="12"/>
     </row>
-    <row r="276" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="s">
         <v>294</v>
       </c>
@@ -9895,7 +9970,7 @@
       <c r="F276" s="16"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
         <v>294</v>
       </c>
@@ -9908,7 +9983,7 @@
       <c r="F277" s="11"/>
       <c r="G277" s="12"/>
     </row>
-    <row r="278" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="s">
         <v>294</v>
       </c>
@@ -9921,7 +9996,7 @@
       <c r="F278" s="16"/>
       <c r="G278" s="17"/>
     </row>
-    <row r="279" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>294</v>
       </c>
@@ -9934,7 +10009,7 @@
       <c r="F279" s="11"/>
       <c r="G279" s="12"/>
     </row>
-    <row r="280" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
         <v>294</v>
       </c>
@@ -9947,7 +10022,7 @@
       <c r="F280" s="16"/>
       <c r="G280" s="17"/>
     </row>
-    <row r="281" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>294</v>
       </c>
@@ -9960,7 +10035,7 @@
       <c r="F281" s="11"/>
       <c r="G281" s="12"/>
     </row>
-    <row r="282" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>294</v>
       </c>
@@ -9973,7 +10048,7 @@
       <c r="F282" s="16"/>
       <c r="G282" s="17"/>
     </row>
-    <row r="283" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>294</v>
       </c>
@@ -9986,7 +10061,7 @@
       <c r="F283" s="11"/>
       <c r="G283" s="12"/>
     </row>
-    <row r="284" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="s">
         <v>294</v>
       </c>
@@ -9999,7 +10074,7 @@
       <c r="F284" s="16"/>
       <c r="G284" s="17"/>
     </row>
-    <row r="285" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>294</v>
       </c>
@@ -10012,7 +10087,7 @@
       <c r="F285" s="11"/>
       <c r="G285" s="12"/>
     </row>
-    <row r="286" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
         <v>294</v>
       </c>
@@ -10025,7 +10100,7 @@
       <c r="F286" s="16"/>
       <c r="G286" s="17"/>
     </row>
-    <row r="287" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>294</v>
       </c>
@@ -10038,7 +10113,7 @@
       <c r="F287" s="11"/>
       <c r="G287" s="12"/>
     </row>
-    <row r="288" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="s">
         <v>294</v>
       </c>
@@ -10051,7 +10126,7 @@
       <c r="F288" s="16"/>
       <c r="G288" s="17"/>
     </row>
-    <row r="289" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>294</v>
       </c>
@@ -10064,7 +10139,7 @@
       <c r="F289" s="11"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
         <v>294</v>
       </c>
@@ -10077,7 +10152,7 @@
       <c r="F290" s="16"/>
       <c r="G290" s="17"/>
     </row>
-    <row r="291" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
         <v>294</v>
       </c>
@@ -10090,7 +10165,7 @@
       <c r="F291" s="11"/>
       <c r="G291" s="12"/>
     </row>
-    <row r="292" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
         <v>294</v>
       </c>
@@ -10103,7 +10178,7 @@
       <c r="F292" s="16"/>
       <c r="G292" s="17"/>
     </row>
-    <row r="293" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
         <v>294</v>
       </c>
@@ -10116,7 +10191,7 @@
       <c r="F293" s="11"/>
       <c r="G293" s="12"/>
     </row>
-    <row r="294" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
         <v>294</v>
       </c>
@@ -10129,7 +10204,7 @@
       <c r="F294" s="16"/>
       <c r="G294" s="17"/>
     </row>
-    <row r="295" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>294</v>
       </c>
@@ -10142,7 +10217,7 @@
       <c r="F295" s="11"/>
       <c r="G295" s="12"/>
     </row>
-    <row r="296" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="s">
         <v>294</v>
       </c>
@@ -10155,7 +10230,7 @@
       <c r="F296" s="16"/>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>294</v>
       </c>
@@ -10168,7 +10243,7 @@
       <c r="F297" s="11"/>
       <c r="G297" s="12"/>
     </row>
-    <row r="298" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="s">
         <v>294</v>
       </c>
@@ -10181,7 +10256,7 @@
       <c r="F298" s="16"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
         <v>294</v>
       </c>
@@ -10194,7 +10269,7 @@
       <c r="F299" s="11"/>
       <c r="G299" s="12"/>
     </row>
-    <row r="300" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="s">
         <v>294</v>
       </c>
@@ -10207,7 +10282,7 @@
       <c r="F300" s="16"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>294</v>
       </c>
@@ -10220,7 +10295,7 @@
       <c r="F301" s="11"/>
       <c r="G301" s="12"/>
     </row>
-    <row r="302" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="s">
         <v>294</v>
       </c>
@@ -10233,7 +10308,7 @@
       <c r="F302" s="16"/>
       <c r="G302" s="17"/>
     </row>
-    <row r="303" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
         <v>294</v>
       </c>
@@ -10246,7 +10321,7 @@
       <c r="F303" s="11"/>
       <c r="G303" s="12"/>
     </row>
-    <row r="304" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="s">
         <v>294</v>
       </c>
@@ -10259,7 +10334,7 @@
       <c r="F304" s="16"/>
       <c r="G304" s="17"/>
     </row>
-    <row r="305" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
         <v>294</v>
       </c>
@@ -10272,7 +10347,7 @@
       <c r="F305" s="11"/>
       <c r="G305" s="12"/>
     </row>
-    <row r="306" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="13" t="s">
         <v>294</v>
       </c>
@@ -10285,7 +10360,7 @@
       <c r="F306" s="16"/>
       <c r="G306" s="17"/>
     </row>
-    <row r="307" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>294</v>
       </c>
@@ -10298,7 +10373,7 @@
       <c r="F307" s="11"/>
       <c r="G307" s="12"/>
     </row>
-    <row r="308" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="s">
         <v>294</v>
       </c>
@@ -10311,7 +10386,7 @@
       <c r="F308" s="16"/>
       <c r="G308" s="17"/>
     </row>
-    <row r="309" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>294</v>
       </c>
@@ -10324,7 +10399,7 @@
       <c r="F309" s="11"/>
       <c r="G309" s="12"/>
     </row>
-    <row r="310" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="s">
         <v>294</v>
       </c>
@@ -10337,7 +10412,7 @@
       <c r="F310" s="16"/>
       <c r="G310" s="17"/>
     </row>
-    <row r="311" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>294</v>
       </c>
@@ -10350,7 +10425,7 @@
       <c r="F311" s="11"/>
       <c r="G311" s="12"/>
     </row>
-    <row r="312" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="13" t="s">
         <v>333</v>
       </c>
@@ -10373,7 +10448,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="9" t="s">
         <v>333</v>
       </c>
@@ -10396,7 +10471,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="s">
         <v>333</v>
       </c>
@@ -10419,7 +10494,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
         <v>333</v>
       </c>
@@ -10442,7 +10517,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -10465,7 +10540,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
         <v>333</v>
       </c>
@@ -10488,7 +10563,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="13" t="s">
         <v>333</v>
       </c>
@@ -10511,7 +10586,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
         <v>333</v>
       </c>
@@ -10534,7 +10609,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="s">
         <v>333</v>
       </c>
@@ -10547,7 +10622,7 @@
       <c r="F320" s="16"/>
       <c r="G320" s="17"/>
     </row>
-    <row r="321" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>333</v>
       </c>
@@ -10560,7 +10635,7 @@
       <c r="F321" s="11"/>
       <c r="G321" s="12"/>
     </row>
-    <row r="322" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="s">
         <v>333</v>
       </c>
@@ -10573,7 +10648,7 @@
       <c r="F322" s="16"/>
       <c r="G322" s="17"/>
     </row>
-    <row r="323" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
         <v>333</v>
       </c>
@@ -10586,7 +10661,7 @@
       <c r="F323" s="11"/>
       <c r="G323" s="12"/>
     </row>
-    <row r="324" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="s">
         <v>333</v>
       </c>
@@ -10599,7 +10674,7 @@
       <c r="F324" s="16"/>
       <c r="G324" s="17"/>
     </row>
-    <row r="325" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>333</v>
       </c>
@@ -10612,7 +10687,7 @@
       <c r="F325" s="11"/>
       <c r="G325" s="12"/>
     </row>
-    <row r="326" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
         <v>333</v>
       </c>
@@ -10625,7 +10700,7 @@
       <c r="F326" s="16"/>
       <c r="G326" s="17"/>
     </row>
-    <row r="327" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>333</v>
       </c>
@@ -10638,7 +10713,7 @@
       <c r="F327" s="11"/>
       <c r="G327" s="12"/>
     </row>
-    <row r="328" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="s">
         <v>333</v>
       </c>
@@ -10651,7 +10726,7 @@
       <c r="F328" s="16"/>
       <c r="G328" s="17"/>
     </row>
-    <row r="329" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>333</v>
       </c>
@@ -10664,7 +10739,7 @@
       <c r="F329" s="11"/>
       <c r="G329" s="12"/>
     </row>
-    <row r="330" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="13" t="s">
         <v>360</v>
       </c>
@@ -10677,7 +10752,7 @@
       <c r="F330" s="16"/>
       <c r="G330" s="17"/>
     </row>
-    <row r="331" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>360</v>
       </c>
@@ -10690,7 +10765,7 @@
       <c r="F331" s="11"/>
       <c r="G331" s="12"/>
     </row>
-    <row r="332" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="13" t="s">
         <v>360</v>
       </c>
@@ -10703,7 +10778,7 @@
       <c r="F332" s="16"/>
       <c r="G332" s="17"/>
     </row>
-    <row r="333" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
         <v>360</v>
       </c>
@@ -10716,7 +10791,7 @@
       <c r="F333" s="11"/>
       <c r="G333" s="12"/>
     </row>
-    <row r="334" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="13" t="s">
         <v>360</v>
       </c>
@@ -10729,7 +10804,7 @@
       <c r="F334" s="16"/>
       <c r="G334" s="17"/>
     </row>
-    <row r="335" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>360</v>
       </c>
@@ -10742,7 +10817,7 @@
       <c r="F335" s="11"/>
       <c r="G335" s="12"/>
     </row>
-    <row r="336" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="13" t="s">
         <v>360</v>
       </c>
@@ -10755,7 +10830,7 @@
       <c r="F336" s="16"/>
       <c r="G336" s="17"/>
     </row>
-    <row r="337" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>360</v>
       </c>
@@ -10768,7 +10843,7 @@
       <c r="F337" s="11"/>
       <c r="G337" s="12"/>
     </row>
-    <row r="338" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="s">
         <v>360</v>
       </c>
@@ -10781,7 +10856,7 @@
       <c r="F338" s="16"/>
       <c r="G338" s="17"/>
     </row>
-    <row r="339" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>360</v>
       </c>
@@ -10794,7 +10869,7 @@
       <c r="F339" s="11"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="13" t="s">
         <v>360</v>
       </c>
@@ -10807,7 +10882,7 @@
       <c r="F340" s="16"/>
       <c r="G340" s="17"/>
     </row>
-    <row r="341" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
         <v>360</v>
       </c>
@@ -10820,7 +10895,7 @@
       <c r="F341" s="11"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="13" t="s">
         <v>360</v>
       </c>
@@ -10833,7 +10908,7 @@
       <c r="F342" s="16"/>
       <c r="G342" s="17"/>
     </row>
-    <row r="343" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
         <v>360</v>
       </c>
@@ -10846,7 +10921,7 @@
       <c r="F343" s="11"/>
       <c r="G343" s="12"/>
     </row>
-    <row r="344" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="13" t="s">
         <v>360</v>
       </c>
@@ -10859,7 +10934,7 @@
       <c r="F344" s="16"/>
       <c r="G344" s="17"/>
     </row>
-    <row r="345" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>360</v>
       </c>
@@ -10872,7 +10947,7 @@
       <c r="F345" s="11"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="13" t="s">
         <v>360</v>
       </c>
@@ -10885,7 +10960,7 @@
       <c r="F346" s="16"/>
       <c r="G346" s="17"/>
     </row>
-    <row r="347" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>360</v>
       </c>
@@ -10898,7 +10973,7 @@
       <c r="F347" s="11"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="13" t="s">
         <v>360</v>
       </c>
@@ -10911,7 +10986,7 @@
       <c r="F348" s="16"/>
       <c r="G348" s="17"/>
     </row>
-    <row r="349" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
         <v>360</v>
       </c>
@@ -10924,7 +10999,7 @@
       <c r="F349" s="11"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="13" t="s">
         <v>360</v>
       </c>
@@ -10937,7 +11012,7 @@
       <c r="F350" s="16"/>
       <c r="G350" s="17"/>
     </row>
-    <row r="351" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>360</v>
       </c>
@@ -10950,7 +11025,7 @@
       <c r="F351" s="11"/>
       <c r="G351" s="12"/>
     </row>
-    <row r="352" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="13" t="s">
         <v>360</v>
       </c>
@@ -10963,7 +11038,7 @@
       <c r="F352" s="16"/>
       <c r="G352" s="17"/>
     </row>
-    <row r="353" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>360</v>
       </c>
@@ -10976,7 +11051,7 @@
       <c r="F353" s="11"/>
       <c r="G353" s="12"/>
     </row>
-    <row r="354" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="13" t="s">
         <v>360</v>
       </c>
@@ -10989,7 +11064,7 @@
       <c r="F354" s="16"/>
       <c r="G354" s="17"/>
     </row>
-    <row r="355" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>360</v>
       </c>
@@ -11002,7 +11077,7 @@
       <c r="F355" s="11"/>
       <c r="G355" s="12"/>
     </row>
-    <row r="356" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="13" t="s">
         <v>360</v>
       </c>
@@ -11015,7 +11090,7 @@
       <c r="F356" s="16"/>
       <c r="G356" s="17"/>
     </row>
-    <row r="357" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>360</v>
       </c>
@@ -11028,7 +11103,7 @@
       <c r="F357" s="11"/>
       <c r="G357" s="12"/>
     </row>
-    <row r="358" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="13" t="s">
         <v>360</v>
       </c>
@@ -11041,7 +11116,7 @@
       <c r="F358" s="16"/>
       <c r="G358" s="17"/>
     </row>
-    <row r="359" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
         <v>360</v>
       </c>
@@ -11054,7 +11129,7 @@
       <c r="F359" s="11"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="13" t="s">
         <v>360</v>
       </c>
@@ -11067,7 +11142,7 @@
       <c r="F360" s="16"/>
       <c r="G360" s="17"/>
     </row>
-    <row r="361" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>360</v>
       </c>
@@ -11080,7 +11155,7 @@
       <c r="F361" s="11"/>
       <c r="G361" s="12"/>
     </row>
-    <row r="362" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="13" t="s">
         <v>360</v>
       </c>
@@ -11093,7 +11168,7 @@
       <c r="F362" s="16"/>
       <c r="G362" s="17"/>
     </row>
-    <row r="363" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
         <v>360</v>
       </c>
@@ -11106,7 +11181,7 @@
       <c r="F363" s="11"/>
       <c r="G363" s="12"/>
     </row>
-    <row r="364" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="13" t="s">
         <v>360</v>
       </c>
@@ -11119,7 +11194,7 @@
       <c r="F364" s="16"/>
       <c r="G364" s="17"/>
     </row>
-    <row r="365" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
         <v>360</v>
       </c>
@@ -11132,7 +11207,7 @@
       <c r="F365" s="11"/>
       <c r="G365" s="12"/>
     </row>
-    <row r="366" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="13" t="s">
         <v>360</v>
       </c>
@@ -11145,7 +11220,7 @@
       <c r="F366" s="16"/>
       <c r="G366" s="17"/>
     </row>
-    <row r="367" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
         <v>360</v>
       </c>
@@ -11158,7 +11233,7 @@
       <c r="F367" s="11"/>
       <c r="G367" s="12"/>
     </row>
-    <row r="368" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="13" t="s">
         <v>360</v>
       </c>
@@ -11171,7 +11246,7 @@
       <c r="F368" s="16"/>
       <c r="G368" s="17"/>
     </row>
-    <row r="369" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>360</v>
       </c>
@@ -11184,7 +11259,7 @@
       <c r="F369" s="11"/>
       <c r="G369" s="12"/>
     </row>
-    <row r="370" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="13" t="s">
         <v>360</v>
       </c>
@@ -11197,7 +11272,7 @@
       <c r="F370" s="16"/>
       <c r="G370" s="17"/>
     </row>
-    <row r="371" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
         <v>360</v>
       </c>
@@ -11210,7 +11285,7 @@
       <c r="F371" s="11"/>
       <c r="G371" s="12"/>
     </row>
-    <row r="372" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="13" t="s">
         <v>360</v>
       </c>
@@ -11223,7 +11298,7 @@
       <c r="F372" s="16"/>
       <c r="G372" s="17"/>
     </row>
-    <row r="373" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
         <v>360</v>
       </c>
@@ -11236,7 +11311,7 @@
       <c r="F373" s="11"/>
       <c r="G373" s="12"/>
     </row>
-    <row r="374" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="13" t="s">
         <v>404</v>
       </c>
@@ -11249,7 +11324,7 @@
       <c r="F374" s="16"/>
       <c r="G374" s="17"/>
     </row>
-    <row r="375" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
         <v>404</v>
       </c>
@@ -11262,7 +11337,7 @@
       <c r="F375" s="11"/>
       <c r="G375" s="12"/>
     </row>
-    <row r="376" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="13" t="s">
         <v>404</v>
       </c>
@@ -11275,7 +11350,7 @@
       <c r="F376" s="16"/>
       <c r="G376" s="17"/>
     </row>
-    <row r="377" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
         <v>404</v>
       </c>
@@ -11288,7 +11363,7 @@
       <c r="F377" s="11"/>
       <c r="G377" s="12"/>
     </row>
-    <row r="378" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="13" t="s">
         <v>404</v>
       </c>
@@ -11301,7 +11376,7 @@
       <c r="F378" s="16"/>
       <c r="G378" s="17"/>
     </row>
-    <row r="379" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
         <v>404</v>
       </c>
@@ -11314,7 +11389,7 @@
       <c r="F379" s="11"/>
       <c r="G379" s="12"/>
     </row>
-    <row r="380" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="13" t="s">
         <v>410</v>
       </c>
@@ -11327,7 +11402,7 @@
       <c r="F380" s="16"/>
       <c r="G380" s="17"/>
     </row>
-    <row r="381" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="9" t="s">
         <v>410</v>
       </c>
@@ -11340,7 +11415,7 @@
       <c r="F381" s="11"/>
       <c r="G381" s="12"/>
     </row>
-    <row r="382" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="13" t="s">
         <v>410</v>
       </c>
@@ -11363,7 +11438,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
         <v>410</v>
       </c>
@@ -11386,7 +11461,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="13" t="s">
         <v>410</v>
       </c>
@@ -11409,7 +11484,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
         <v>410</v>
       </c>
@@ -11422,7 +11497,7 @@
       <c r="F385" s="11"/>
       <c r="G385" s="12"/>
     </row>
-    <row r="386" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="13" t="s">
         <v>410</v>
       </c>
@@ -11435,7 +11510,7 @@
       <c r="F386" s="16"/>
       <c r="G386" s="17"/>
     </row>
-    <row r="387" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
         <v>410</v>
       </c>
@@ -11448,7 +11523,7 @@
       <c r="F387" s="11"/>
       <c r="G387" s="12"/>
     </row>
-    <row r="388" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="13" t="s">
         <v>410</v>
       </c>
@@ -11471,7 +11546,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
         <v>410</v>
       </c>
@@ -11492,7 +11567,7 @@
       </c>
       <c r="G389" s="12"/>
     </row>
-    <row r="390" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="13" t="s">
         <v>410</v>
       </c>
@@ -11505,7 +11580,7 @@
       <c r="F390" s="16"/>
       <c r="G390" s="17"/>
     </row>
-    <row r="391" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
         <v>410</v>
       </c>
@@ -11518,7 +11593,7 @@
       <c r="F391" s="11"/>
       <c r="G391" s="12"/>
     </row>
-    <row r="392" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="13" t="s">
         <v>410</v>
       </c>
@@ -11531,7 +11606,7 @@
       <c r="F392" s="16"/>
       <c r="G392" s="17"/>
     </row>
-    <row r="393" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
         <v>410</v>
       </c>
@@ -11544,7 +11619,7 @@
       <c r="F393" s="11"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="13" t="s">
         <v>410</v>
       </c>
@@ -11557,7 +11632,7 @@
       <c r="F394" s="16"/>
       <c r="G394" s="17"/>
     </row>
-    <row r="395" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
         <v>410</v>
       </c>
@@ -11570,7 +11645,7 @@
       <c r="F395" s="11"/>
       <c r="G395" s="12"/>
     </row>
-    <row r="396" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="13" t="s">
         <v>410</v>
       </c>
@@ -11583,7 +11658,7 @@
       <c r="F396" s="16"/>
       <c r="G396" s="17"/>
     </row>
-    <row r="397" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
         <v>410</v>
       </c>
@@ -11596,7 +11671,7 @@
       <c r="F397" s="11"/>
       <c r="G397" s="12"/>
     </row>
-    <row r="398" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="13" t="s">
         <v>410</v>
       </c>
@@ -11609,7 +11684,7 @@
       <c r="F398" s="16"/>
       <c r="G398" s="17"/>
     </row>
-    <row r="399" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
         <v>410</v>
       </c>
@@ -11622,7 +11697,7 @@
       <c r="F399" s="11"/>
       <c r="G399" s="12"/>
     </row>
-    <row r="400" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="13" t="s">
         <v>410</v>
       </c>
@@ -11635,7 +11710,7 @@
       <c r="F400" s="16"/>
       <c r="G400" s="17"/>
     </row>
-    <row r="401" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="9" t="s">
         <v>410</v>
       </c>
@@ -11648,7 +11723,7 @@
       <c r="F401" s="11"/>
       <c r="G401" s="12"/>
     </row>
-    <row r="402" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="13" t="s">
         <v>410</v>
       </c>
@@ -11661,7 +11736,7 @@
       <c r="F402" s="16"/>
       <c r="G402" s="17"/>
     </row>
-    <row r="403" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
         <v>410</v>
       </c>
@@ -11674,7 +11749,7 @@
       <c r="F403" s="11"/>
       <c r="G403" s="12"/>
     </row>
-    <row r="404" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="13" t="s">
         <v>410</v>
       </c>
@@ -11687,7 +11762,7 @@
       <c r="F404" s="16"/>
       <c r="G404" s="17"/>
     </row>
-    <row r="405" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9" t="s">
         <v>410</v>
       </c>
@@ -11700,7 +11775,7 @@
       <c r="F405" s="11"/>
       <c r="G405" s="12"/>
     </row>
-    <row r="406" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="13" t="s">
         <v>410</v>
       </c>
@@ -11713,7 +11788,7 @@
       <c r="F406" s="16"/>
       <c r="G406" s="17"/>
     </row>
-    <row r="407" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
         <v>410</v>
       </c>
@@ -11726,7 +11801,7 @@
       <c r="F407" s="11"/>
       <c r="G407" s="12"/>
     </row>
-    <row r="408" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="13" t="s">
         <v>410</v>
       </c>
@@ -11739,7 +11814,7 @@
       <c r="F408" s="16"/>
       <c r="G408" s="17"/>
     </row>
-    <row r="409" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="9" t="s">
         <v>410</v>
       </c>
@@ -11752,7 +11827,7 @@
       <c r="F409" s="11"/>
       <c r="G409" s="12"/>
     </row>
-    <row r="410" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="13" t="s">
         <v>410</v>
       </c>
@@ -11765,7 +11840,7 @@
       <c r="F410" s="16"/>
       <c r="G410" s="17"/>
     </row>
-    <row r="411" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="9" t="s">
         <v>410</v>
       </c>
@@ -11778,7 +11853,7 @@
       <c r="F411" s="11"/>
       <c r="G411" s="12"/>
     </row>
-    <row r="412" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="13" t="s">
         <v>410</v>
       </c>
@@ -11791,7 +11866,7 @@
       <c r="F412" s="16"/>
       <c r="G412" s="17"/>
     </row>
-    <row r="413" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="9" t="s">
         <v>410</v>
       </c>
@@ -11804,7 +11879,7 @@
       <c r="F413" s="11"/>
       <c r="G413" s="12"/>
     </row>
-    <row r="414" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="13" t="s">
         <v>410</v>
       </c>
@@ -11817,7 +11892,7 @@
       <c r="F414" s="16"/>
       <c r="G414" s="17"/>
     </row>
-    <row r="415" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="9" t="s">
         <v>410</v>
       </c>
@@ -11830,7 +11905,7 @@
       <c r="F415" s="11"/>
       <c r="G415" s="12"/>
     </row>
-    <row r="416" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="13" t="s">
         <v>410</v>
       </c>
@@ -11843,7 +11918,7 @@
       <c r="F416" s="16"/>
       <c r="G416" s="17"/>
     </row>
-    <row r="417" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="9" t="s">
         <v>410</v>
       </c>
@@ -11856,7 +11931,7 @@
       <c r="F417" s="11"/>
       <c r="G417" s="12"/>
     </row>
-    <row r="418" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="13" t="s">
         <v>410</v>
       </c>
@@ -11869,7 +11944,7 @@
       <c r="F418" s="16"/>
       <c r="G418" s="17"/>
     </row>
-    <row r="419" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="9" t="s">
         <v>410</v>
       </c>
@@ -11882,7 +11957,7 @@
       <c r="F419" s="11"/>
       <c r="G419" s="12"/>
     </row>
-    <row r="420" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="13" t="s">
         <v>410</v>
       </c>
@@ -11895,7 +11970,7 @@
       <c r="F420" s="16"/>
       <c r="G420" s="17"/>
     </row>
-    <row r="421" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="9" t="s">
         <v>410</v>
       </c>
@@ -11908,7 +11983,7 @@
       <c r="F421" s="11"/>
       <c r="G421" s="12"/>
     </row>
-    <row r="422" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="13" t="s">
         <v>410</v>
       </c>
@@ -11921,7 +11996,7 @@
       <c r="F422" s="16"/>
       <c r="G422" s="17"/>
     </row>
-    <row r="423" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="9" t="s">
         <v>410</v>
       </c>
@@ -11934,7 +12009,7 @@
       <c r="F423" s="11"/>
       <c r="G423" s="12"/>
     </row>
-    <row r="424" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="13" t="s">
         <v>410</v>
       </c>
@@ -11947,7 +12022,7 @@
       <c r="F424" s="16"/>
       <c r="G424" s="17"/>
     </row>
-    <row r="425" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="9" t="s">
         <v>410</v>
       </c>
@@ -11960,7 +12035,7 @@
       <c r="F425" s="11"/>
       <c r="G425" s="12"/>
     </row>
-    <row r="426" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="13" t="s">
         <v>410</v>
       </c>
@@ -11973,7 +12048,7 @@
       <c r="F426" s="16"/>
       <c r="G426" s="17"/>
     </row>
-    <row r="427" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="9" t="s">
         <v>410</v>
       </c>
@@ -11986,7 +12061,7 @@
       <c r="F427" s="11"/>
       <c r="G427" s="12"/>
     </row>
-    <row r="428" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="13" t="s">
         <v>410</v>
       </c>
@@ -11999,7 +12074,7 @@
       <c r="F428" s="16"/>
       <c r="G428" s="17"/>
     </row>
-    <row r="429" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="9" t="s">
         <v>410</v>
       </c>
@@ -12012,7 +12087,7 @@
       <c r="F429" s="11"/>
       <c r="G429" s="12"/>
     </row>
-    <row r="430" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="13" t="s">
         <v>410</v>
       </c>
@@ -12025,7 +12100,7 @@
       <c r="F430" s="16"/>
       <c r="G430" s="17"/>
     </row>
-    <row r="431" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="9" t="s">
         <v>410</v>
       </c>
@@ -12038,7 +12113,7 @@
       <c r="F431" s="11"/>
       <c r="G431" s="12"/>
     </row>
-    <row r="432" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="13" t="s">
         <v>410</v>
       </c>
@@ -12051,7 +12126,7 @@
       <c r="F432" s="16"/>
       <c r="G432" s="17"/>
     </row>
-    <row r="433" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="9" t="s">
         <v>410</v>
       </c>
@@ -12064,7 +12139,7 @@
       <c r="F433" s="11"/>
       <c r="G433" s="12"/>
     </row>
-    <row r="434" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="13" t="s">
         <v>410</v>
       </c>
@@ -12077,7 +12152,7 @@
       <c r="F434" s="16"/>
       <c r="G434" s="17"/>
     </row>
-    <row r="435" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="9" t="s">
         <v>410</v>
       </c>
@@ -12090,7 +12165,7 @@
       <c r="F435" s="11"/>
       <c r="G435" s="12"/>
     </row>
-    <row r="436" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="13" t="s">
         <v>410</v>
       </c>
@@ -12103,7 +12178,7 @@
       <c r="F436" s="16"/>
       <c r="G436" s="17"/>
     </row>
-    <row r="437" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="9" t="s">
         <v>410</v>
       </c>
@@ -12116,7 +12191,7 @@
       <c r="F437" s="11"/>
       <c r="G437" s="12"/>
     </row>
-    <row r="438" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="13" t="s">
         <v>410</v>
       </c>
@@ -12129,7 +12204,7 @@
       <c r="F438" s="16"/>
       <c r="G438" s="17"/>
     </row>
-    <row r="439" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="9" t="s">
         <v>410</v>
       </c>
@@ -12142,7 +12217,7 @@
       <c r="F439" s="11"/>
       <c r="G439" s="12"/>
     </row>
-    <row r="440" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="13" t="s">
         <v>474</v>
       </c>
@@ -12155,7 +12230,7 @@
       <c r="F440" s="16"/>
       <c r="G440" s="17"/>
     </row>
-    <row r="441" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
         <v>474</v>
       </c>
@@ -12168,7 +12243,7 @@
       <c r="F441" s="11"/>
       <c r="G441" s="12"/>
     </row>
-    <row r="442" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="13" t="s">
         <v>474</v>
       </c>
@@ -12181,7 +12256,7 @@
       <c r="F442" s="16"/>
       <c r="G442" s="17"/>
     </row>
-    <row r="443" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>474</v>
       </c>
@@ -12194,7 +12269,7 @@
       <c r="F443" s="11"/>
       <c r="G443" s="12"/>
     </row>
-    <row r="444" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="13" t="s">
         <v>474</v>
       </c>
@@ -12207,7 +12282,7 @@
       <c r="F444" s="16"/>
       <c r="G444" s="17"/>
     </row>
-    <row r="445" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
         <v>474</v>
       </c>
@@ -12220,7 +12295,7 @@
       <c r="F445" s="11"/>
       <c r="G445" s="12"/>
     </row>
-    <row r="446" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="13" t="s">
         <v>474</v>
       </c>
@@ -12233,7 +12308,7 @@
       <c r="F446" s="16"/>
       <c r="G446" s="17"/>
     </row>
-    <row r="447" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
         <v>474</v>
       </c>
@@ -12246,7 +12321,7 @@
       <c r="F447" s="11"/>
       <c r="G447" s="12"/>
     </row>
-    <row r="448" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="13" t="s">
         <v>474</v>
       </c>
@@ -12259,7 +12334,7 @@
       <c r="F448" s="16"/>
       <c r="G448" s="17"/>
     </row>
-    <row r="449" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
         <v>474</v>
       </c>
@@ -12272,7 +12347,7 @@
       <c r="F449" s="11"/>
       <c r="G449" s="12"/>
     </row>
-    <row r="450" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="25"/>
       <c r="B450" s="14" t="s">
         <v>485</v>
@@ -12283,7 +12358,7 @@
       <c r="F450" s="16"/>
       <c r="G450" s="17"/>
     </row>
-    <row r="451" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="26"/>
       <c r="B451" s="27" t="s">
         <v>486</v>
@@ -12295,6 +12370,13 @@
       <c r="G451" s="29"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:IV451" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Binary Search Trees"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/DSA/FINAL450.xlsx
+++ b/DSA/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2453\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{33C82736-9654-4B89-9743-82954071747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3AD19B2-6CD9-4786-913C-D01F1AE10C6E}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{33C82736-9654-4B89-9743-82954071747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{991AA1EB-29F0-4575-9721-B106DDA29C2C}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6279,12 +6279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:IV451"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D203" sqref="D203"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6322,7 +6321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -6335,7 +6334,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -6348,7 +6347,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -6361,7 +6360,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -6374,7 +6373,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -6387,7 +6386,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -6400,7 +6399,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -6413,7 +6412,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -6426,7 +6425,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -6439,7 +6438,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -6452,7 +6451,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -6465,7 +6464,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
@@ -6478,7 +6477,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -6491,7 +6490,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -6504,7 +6503,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
@@ -6517,7 +6516,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
@@ -6530,7 +6529,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -6543,7 +6542,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -6556,7 +6555,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -6569,7 +6568,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -6582,7 +6581,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>7</v>
       </c>
@@ -6595,7 +6594,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
@@ -6608,7 +6607,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>7</v>
       </c>
@@ -6621,7 +6620,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
@@ -6634,7 +6633,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>7</v>
       </c>
@@ -6647,7 +6646,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>7</v>
       </c>
@@ -6660,7 +6659,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
@@ -6673,7 +6672,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -6686,7 +6685,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>7</v>
       </c>
@@ -6699,7 +6698,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>7</v>
       </c>
@@ -6712,7 +6711,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>7</v>
       </c>
@@ -6725,7 +6724,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -6738,7 +6737,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>7</v>
       </c>
@@ -6751,7 +6750,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>7</v>
       </c>
@@ -6764,7 +6763,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>7</v>
       </c>
@@ -6777,7 +6776,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>7</v>
       </c>
@@ -6790,7 +6789,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -6803,7 +6802,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -6816,7 +6815,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>44</v>
       </c>
@@ -6829,7 +6828,7 @@
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>44</v>
       </c>
@@ -6842,7 +6841,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>44</v>
       </c>
@@ -6855,7 +6854,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>44</v>
       </c>
@@ -6868,7 +6867,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>44</v>
       </c>
@@ -6881,7 +6880,7 @@
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
@@ -6894,7 +6893,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>44</v>
       </c>
@@ -6907,7 +6906,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>44</v>
       </c>
@@ -6920,7 +6919,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>55</v>
       </c>
@@ -6933,7 +6932,7 @@
       <c r="F48" s="16"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>55</v>
       </c>
@@ -6946,7 +6945,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>55</v>
       </c>
@@ -6959,7 +6958,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>55</v>
       </c>
@@ -6972,7 +6971,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>55</v>
       </c>
@@ -6985,7 +6984,7 @@
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>55</v>
       </c>
@@ -6998,7 +6997,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>55</v>
       </c>
@@ -7011,7 +7010,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>55</v>
       </c>
@@ -7024,7 +7023,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
@@ -7037,7 +7036,7 @@
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
@@ -7050,7 +7049,7 @@
       <c r="F57" s="11"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>55</v>
       </c>
@@ -7063,7 +7062,7 @@
       <c r="F58" s="16"/>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>55</v>
       </c>
@@ -7076,7 +7075,7 @@
       <c r="F59" s="11"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>55</v>
       </c>
@@ -7089,7 +7088,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>55</v>
       </c>
@@ -7102,7 +7101,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>55</v>
       </c>
@@ -7115,7 +7114,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>55</v>
       </c>
@@ -7128,7 +7127,7 @@
       <c r="F63" s="11"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>55</v>
       </c>
@@ -7141,7 +7140,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>55</v>
       </c>
@@ -7154,7 +7153,7 @@
       <c r="F65" s="11"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>55</v>
       </c>
@@ -7167,7 +7166,7 @@
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>55</v>
       </c>
@@ -7180,7 +7179,7 @@
       <c r="F67" s="11"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>55</v>
       </c>
@@ -7193,7 +7192,7 @@
       <c r="F68" s="16"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>55</v>
       </c>
@@ -7206,7 +7205,7 @@
       <c r="F69" s="11"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>55</v>
       </c>
@@ -7219,7 +7218,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>55</v>
       </c>
@@ -7232,7 +7231,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>55</v>
       </c>
@@ -7245,7 +7244,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>55</v>
       </c>
@@ -7258,7 +7257,7 @@
       <c r="F73" s="11"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>55</v>
       </c>
@@ -7271,7 +7270,7 @@
       <c r="F74" s="16"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>55</v>
       </c>
@@ -7284,7 +7283,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>55</v>
       </c>
@@ -7297,7 +7296,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>55</v>
       </c>
@@ -7310,7 +7309,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>55</v>
       </c>
@@ -7323,7 +7322,7 @@
       <c r="F78" s="16"/>
       <c r="G78" s="17"/>
     </row>
-    <row r="79" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>55</v>
       </c>
@@ -7336,7 +7335,7 @@
       <c r="F79" s="11"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>55</v>
       </c>
@@ -7349,7 +7348,7 @@
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
     </row>
-    <row r="81" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>55</v>
       </c>
@@ -7362,7 +7361,7 @@
       <c r="F81" s="11"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>55</v>
       </c>
@@ -7375,7 +7374,7 @@
       <c r="F82" s="16"/>
       <c r="G82" s="17"/>
     </row>
-    <row r="83" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>55</v>
       </c>
@@ -7388,7 +7387,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>55</v>
       </c>
@@ -7401,7 +7400,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
     </row>
-    <row r="85" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>55</v>
       </c>
@@ -7414,7 +7413,7 @@
       <c r="F85" s="11"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>55</v>
       </c>
@@ -7427,7 +7426,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="17"/>
     </row>
-    <row r="87" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>55</v>
       </c>
@@ -7440,7 +7439,7 @@
       <c r="F87" s="11"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>55</v>
       </c>
@@ -7453,7 +7452,7 @@
       <c r="F88" s="16"/>
       <c r="G88" s="17"/>
     </row>
-    <row r="89" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>55</v>
       </c>
@@ -7466,7 +7465,7 @@
       <c r="F89" s="11"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>55</v>
       </c>
@@ -7479,7 +7478,7 @@
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
     </row>
-    <row r="91" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>99</v>
       </c>
@@ -7492,7 +7491,7 @@
       <c r="F91" s="11"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>99</v>
       </c>
@@ -7505,7 +7504,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="17"/>
     </row>
-    <row r="93" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>99</v>
       </c>
@@ -7518,7 +7517,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>99</v>
       </c>
@@ -7531,7 +7530,7 @@
       <c r="F94" s="16"/>
       <c r="G94" s="17"/>
     </row>
-    <row r="95" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>99</v>
       </c>
@@ -7544,7 +7543,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>99</v>
       </c>
@@ -7557,7 +7556,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="17"/>
     </row>
-    <row r="97" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>99</v>
       </c>
@@ -7570,7 +7569,7 @@
       <c r="F97" s="11"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>99</v>
       </c>
@@ -7583,7 +7582,7 @@
       <c r="F98" s="16"/>
       <c r="G98" s="17"/>
     </row>
-    <row r="99" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>99</v>
       </c>
@@ -7596,7 +7595,7 @@
       <c r="F99" s="11"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>99</v>
       </c>
@@ -7609,7 +7608,7 @@
       <c r="F100" s="16"/>
       <c r="G100" s="17"/>
     </row>
-    <row r="101" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>99</v>
       </c>
@@ -7622,7 +7621,7 @@
       <c r="F101" s="11"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>99</v>
       </c>
@@ -7635,7 +7634,7 @@
       <c r="F102" s="16"/>
       <c r="G102" s="17"/>
     </row>
-    <row r="103" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>99</v>
       </c>
@@ -7648,7 +7647,7 @@
       <c r="F103" s="11"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>99</v>
       </c>
@@ -7661,7 +7660,7 @@
       <c r="F104" s="16"/>
       <c r="G104" s="17"/>
     </row>
-    <row r="105" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>99</v>
       </c>
@@ -7674,7 +7673,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>99</v>
       </c>
@@ -7687,7 +7686,7 @@
       <c r="F106" s="16"/>
       <c r="G106" s="17"/>
     </row>
-    <row r="107" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>99</v>
       </c>
@@ -7700,7 +7699,7 @@
       <c r="F107" s="11"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>99</v>
       </c>
@@ -7713,7 +7712,7 @@
       <c r="F108" s="16"/>
       <c r="G108" s="17"/>
     </row>
-    <row r="109" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>99</v>
       </c>
@@ -7726,7 +7725,7 @@
       <c r="F109" s="11"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>99</v>
       </c>
@@ -7739,7 +7738,7 @@
       <c r="F110" s="16"/>
       <c r="G110" s="17"/>
     </row>
-    <row r="111" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>99</v>
       </c>
@@ -7752,7 +7751,7 @@
       <c r="F111" s="11"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>99</v>
       </c>
@@ -7765,7 +7764,7 @@
       <c r="F112" s="16"/>
       <c r="G112" s="17"/>
     </row>
-    <row r="113" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>99</v>
       </c>
@@ -7778,7 +7777,7 @@
       <c r="F113" s="11"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>99</v>
       </c>
@@ -7791,7 +7790,7 @@
       <c r="F114" s="16"/>
       <c r="G114" s="17"/>
     </row>
-    <row r="115" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>99</v>
       </c>
@@ -7804,7 +7803,7 @@
       <c r="F115" s="11"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
         <v>99</v>
       </c>
@@ -7817,7 +7816,7 @@
       <c r="F116" s="16"/>
       <c r="G116" s="17"/>
     </row>
-    <row r="117" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>99</v>
       </c>
@@ -7830,7 +7829,7 @@
       <c r="F117" s="11"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
         <v>99</v>
       </c>
@@ -7843,7 +7842,7 @@
       <c r="F118" s="16"/>
       <c r="G118" s="17"/>
     </row>
-    <row r="119" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>99</v>
       </c>
@@ -7856,7 +7855,7 @@
       <c r="F119" s="11"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
         <v>99</v>
       </c>
@@ -7869,7 +7868,7 @@
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
     </row>
-    <row r="121" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>99</v>
       </c>
@@ -7882,7 +7881,7 @@
       <c r="F121" s="11"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>99</v>
       </c>
@@ -7895,7 +7894,7 @@
       <c r="F122" s="16"/>
       <c r="G122" s="17"/>
     </row>
-    <row r="123" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>99</v>
       </c>
@@ -7908,7 +7907,7 @@
       <c r="F123" s="11"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>99</v>
       </c>
@@ -7921,7 +7920,7 @@
       <c r="F124" s="16"/>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>99</v>
       </c>
@@ -7934,7 +7933,7 @@
       <c r="F125" s="11"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>99</v>
       </c>
@@ -7947,7 +7946,7 @@
       <c r="F126" s="16"/>
       <c r="G126" s="17"/>
     </row>
-    <row r="127" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>136</v>
       </c>
@@ -7960,7 +7959,7 @@
       <c r="F127" s="11"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
         <v>136</v>
       </c>
@@ -7973,7 +7972,7 @@
       <c r="F128" s="16"/>
       <c r="G128" s="17"/>
     </row>
-    <row r="129" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>136</v>
       </c>
@@ -7986,7 +7985,7 @@
       <c r="F129" s="11"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
         <v>136</v>
       </c>
@@ -7999,7 +7998,7 @@
       <c r="F130" s="16"/>
       <c r="G130" s="17"/>
     </row>
-    <row r="131" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>136</v>
       </c>
@@ -8012,7 +8011,7 @@
       <c r="F131" s="11"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
         <v>136</v>
       </c>
@@ -8025,7 +8024,7 @@
       <c r="F132" s="16"/>
       <c r="G132" s="17"/>
     </row>
-    <row r="133" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>136</v>
       </c>
@@ -8038,7 +8037,7 @@
       <c r="F133" s="11"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>136</v>
       </c>
@@ -8051,7 +8050,7 @@
       <c r="F134" s="16"/>
       <c r="G134" s="17"/>
     </row>
-    <row r="135" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>136</v>
       </c>
@@ -8064,7 +8063,7 @@
       <c r="F135" s="11"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>136</v>
       </c>
@@ -8077,7 +8076,7 @@
       <c r="F136" s="16"/>
       <c r="G136" s="17"/>
     </row>
-    <row r="137" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>136</v>
       </c>
@@ -8090,7 +8089,7 @@
       <c r="F137" s="11"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
         <v>136</v>
       </c>
@@ -8103,7 +8102,7 @@
       <c r="F138" s="16"/>
       <c r="G138" s="17"/>
     </row>
-    <row r="139" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>136</v>
       </c>
@@ -8116,7 +8115,7 @@
       <c r="F139" s="11"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A140" s="13" t="s">
         <v>136</v>
       </c>
@@ -8129,7 +8128,7 @@
       <c r="F140" s="16"/>
       <c r="G140" s="17"/>
     </row>
-    <row r="141" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>136</v>
       </c>
@@ -8142,7 +8141,7 @@
       <c r="F141" s="11"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
         <v>136</v>
       </c>
@@ -8155,7 +8154,7 @@
       <c r="F142" s="16"/>
       <c r="G142" s="17"/>
     </row>
-    <row r="143" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>136</v>
       </c>
@@ -8168,7 +8167,7 @@
       <c r="F143" s="11"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
         <v>136</v>
       </c>
@@ -8181,7 +8180,7 @@
       <c r="F144" s="16"/>
       <c r="G144" s="17"/>
     </row>
-    <row r="145" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>136</v>
       </c>
@@ -8194,7 +8193,7 @@
       <c r="F145" s="11"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A146" s="13" t="s">
         <v>136</v>
       </c>
@@ -8207,7 +8206,7 @@
       <c r="F146" s="16"/>
       <c r="G146" s="17"/>
     </row>
-    <row r="147" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>136</v>
       </c>
@@ -8220,7 +8219,7 @@
       <c r="F147" s="11"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
         <v>136</v>
       </c>
@@ -8233,7 +8232,7 @@
       <c r="F148" s="16"/>
       <c r="G148" s="17"/>
     </row>
-    <row r="149" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>136</v>
       </c>
@@ -8246,7 +8245,7 @@
       <c r="F149" s="11"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A150" s="13" t="s">
         <v>136</v>
       </c>
@@ -8259,7 +8258,7 @@
       <c r="F150" s="16"/>
       <c r="G150" s="17"/>
     </row>
-    <row r="151" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>136</v>
       </c>
@@ -8272,7 +8271,7 @@
       <c r="F151" s="11"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
         <v>136</v>
       </c>
@@ -8285,7 +8284,7 @@
       <c r="F152" s="16"/>
       <c r="G152" s="17"/>
     </row>
-    <row r="153" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>136</v>
       </c>
@@ -8298,7 +8297,7 @@
       <c r="F153" s="11"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A154" s="13" t="s">
         <v>136</v>
       </c>
@@ -8311,7 +8310,7 @@
       <c r="F154" s="16"/>
       <c r="G154" s="17"/>
     </row>
-    <row r="155" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>136</v>
       </c>
@@ -8324,7 +8323,7 @@
       <c r="F155" s="11"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>136</v>
       </c>
@@ -8337,7 +8336,7 @@
       <c r="F156" s="16"/>
       <c r="G156" s="17"/>
     </row>
-    <row r="157" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>136</v>
       </c>
@@ -8350,7 +8349,7 @@
       <c r="F157" s="11"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
         <v>136</v>
       </c>
@@ -8363,7 +8362,7 @@
       <c r="F158" s="16"/>
       <c r="G158" s="17"/>
     </row>
-    <row r="159" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>136</v>
       </c>
@@ -8376,7 +8375,7 @@
       <c r="F159" s="11"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
         <v>136</v>
       </c>
@@ -8389,7 +8388,7 @@
       <c r="F160" s="16"/>
       <c r="G160" s="17"/>
     </row>
-    <row r="161" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>136</v>
       </c>
@@ -8402,7 +8401,7 @@
       <c r="F161" s="11"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
         <v>136</v>
       </c>
@@ -8415,7 +8414,7 @@
       <c r="F162" s="16"/>
       <c r="G162" s="17"/>
     </row>
-    <row r="163" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>173</v>
       </c>
@@ -8428,7 +8427,7 @@
       <c r="F163" s="11"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
         <v>173</v>
       </c>
@@ -8441,7 +8440,7 @@
       <c r="F164" s="16"/>
       <c r="G164" s="17"/>
     </row>
-    <row r="165" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>173</v>
       </c>
@@ -8454,7 +8453,7 @@
       <c r="F165" s="11"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
         <v>173</v>
       </c>
@@ -8467,7 +8466,7 @@
       <c r="F166" s="16"/>
       <c r="G166" s="17"/>
     </row>
-    <row r="167" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>173</v>
       </c>
@@ -8480,7 +8479,7 @@
       <c r="F167" s="11"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A168" s="13" t="s">
         <v>173</v>
       </c>
@@ -8493,7 +8492,7 @@
       <c r="F168" s="16"/>
       <c r="G168" s="17"/>
     </row>
-    <row r="169" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>173</v>
       </c>
@@ -8506,7 +8505,7 @@
       <c r="F169" s="11"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A170" s="13" t="s">
         <v>173</v>
       </c>
@@ -8519,7 +8518,7 @@
       <c r="F170" s="16"/>
       <c r="G170" s="17"/>
     </row>
-    <row r="171" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>173</v>
       </c>
@@ -8532,7 +8531,7 @@
       <c r="F171" s="11"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A172" s="13" t="s">
         <v>173</v>
       </c>
@@ -8545,7 +8544,7 @@
       <c r="F172" s="16"/>
       <c r="G172" s="17"/>
     </row>
-    <row r="173" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>173</v>
       </c>
@@ -8558,7 +8557,7 @@
       <c r="F173" s="11"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A174" s="13" t="s">
         <v>173</v>
       </c>
@@ -8571,7 +8570,7 @@
       <c r="F174" s="16"/>
       <c r="G174" s="17"/>
     </row>
-    <row r="175" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>173</v>
       </c>
@@ -8584,7 +8583,7 @@
       <c r="F175" s="11"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
         <v>173</v>
       </c>
@@ -8597,7 +8596,7 @@
       <c r="F176" s="16"/>
       <c r="G176" s="17"/>
     </row>
-    <row r="177" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>173</v>
       </c>
@@ -8610,7 +8609,7 @@
       <c r="F177" s="11"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A178" s="13" t="s">
         <v>173</v>
       </c>
@@ -8623,7 +8622,7 @@
       <c r="F178" s="16"/>
       <c r="G178" s="17"/>
     </row>
-    <row r="179" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>173</v>
       </c>
@@ -8636,7 +8635,7 @@
       <c r="F179" s="11"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
         <v>173</v>
       </c>
@@ -8649,7 +8648,7 @@
       <c r="F180" s="16"/>
       <c r="G180" s="17"/>
     </row>
-    <row r="181" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>173</v>
       </c>
@@ -8662,7 +8661,7 @@
       <c r="F181" s="11"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
         <v>173</v>
       </c>
@@ -8675,7 +8674,7 @@
       <c r="F182" s="16"/>
       <c r="G182" s="17"/>
     </row>
-    <row r="183" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>173</v>
       </c>
@@ -8688,7 +8687,7 @@
       <c r="F183" s="11"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A184" s="13" t="s">
         <v>173</v>
       </c>
@@ -8701,7 +8700,7 @@
       <c r="F184" s="16"/>
       <c r="G184" s="17"/>
     </row>
-    <row r="185" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>173</v>
       </c>
@@ -8714,7 +8713,7 @@
       <c r="F185" s="11"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
         <v>173</v>
       </c>
@@ -8727,7 +8726,7 @@
       <c r="F186" s="16"/>
       <c r="G186" s="17"/>
     </row>
-    <row r="187" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>173</v>
       </c>
@@ -8740,7 +8739,7 @@
       <c r="F187" s="11"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
         <v>173</v>
       </c>
@@ -8753,7 +8752,7 @@
       <c r="F188" s="16"/>
       <c r="G188" s="17"/>
     </row>
-    <row r="189" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>173</v>
       </c>
@@ -8766,7 +8765,7 @@
       <c r="F189" s="11"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
         <v>173</v>
       </c>
@@ -8779,7 +8778,7 @@
       <c r="F190" s="16"/>
       <c r="G190" s="17"/>
     </row>
-    <row r="191" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>173</v>
       </c>
@@ -8792,7 +8791,7 @@
       <c r="F191" s="11"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="s">
         <v>173</v>
       </c>
@@ -8805,7 +8804,7 @@
       <c r="F192" s="16"/>
       <c r="G192" s="17"/>
     </row>
-    <row r="193" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>173</v>
       </c>
@@ -8818,7 +8817,7 @@
       <c r="F193" s="11"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A194" s="13" t="s">
         <v>173</v>
       </c>
@@ -8831,7 +8830,7 @@
       <c r="F194" s="16"/>
       <c r="G194" s="17"/>
     </row>
-    <row r="195" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>173</v>
       </c>
@@ -8844,7 +8843,7 @@
       <c r="F195" s="11"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
         <v>173</v>
       </c>
@@ -8857,7 +8856,7 @@
       <c r="F196" s="16"/>
       <c r="G196" s="17"/>
     </row>
-    <row r="197" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>173</v>
       </c>
@@ -8951,7 +8950,7 @@
       </c>
       <c r="D201" s="32">
         <f ca="1">TODAY()</f>
-        <v>44717</v>
+        <v>44718</v>
       </c>
       <c r="E201" s="11" t="s">
         <v>220</v>
@@ -9037,7 +9036,7 @@
       </c>
       <c r="D206" s="31">
         <f ca="1">TODAY()</f>
-        <v>44717</v>
+        <v>44718</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>212</v>
@@ -9100,7 +9099,7 @@
       </c>
       <c r="D210" s="31">
         <f ca="1">TODAY()</f>
-        <v>44717</v>
+        <v>44718</v>
       </c>
       <c r="E210" s="16" t="s">
         <v>220</v>
@@ -9229,7 +9228,7 @@
       <c r="F219" s="11"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A220" s="13" t="s">
         <v>239</v>
       </c>
@@ -9242,7 +9241,7 @@
       <c r="F220" s="16"/>
       <c r="G220" s="17"/>
     </row>
-    <row r="221" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>239</v>
       </c>
@@ -9255,7 +9254,7 @@
       <c r="F221" s="11"/>
       <c r="G221" s="12"/>
     </row>
-    <row r="222" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -9268,7 +9267,7 @@
       <c r="F222" s="16"/>
       <c r="G222" s="17"/>
     </row>
-    <row r="223" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>239</v>
       </c>
@@ -9281,7 +9280,7 @@
       <c r="F223" s="11"/>
       <c r="G223" s="12"/>
     </row>
-    <row r="224" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A224" s="13" t="s">
         <v>239</v>
       </c>
@@ -9294,7 +9293,7 @@
       <c r="F224" s="16"/>
       <c r="G224" s="17"/>
     </row>
-    <row r="225" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>239</v>
       </c>
@@ -9307,7 +9306,7 @@
       <c r="F225" s="11"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A226" s="13" t="s">
         <v>239</v>
       </c>
@@ -9320,7 +9319,7 @@
       <c r="F226" s="16"/>
       <c r="G226" s="17"/>
     </row>
-    <row r="227" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>239</v>
       </c>
@@ -9333,7 +9332,7 @@
       <c r="F227" s="11"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A228" s="13" t="s">
         <v>239</v>
       </c>
@@ -9346,7 +9345,7 @@
       <c r="F228" s="16"/>
       <c r="G228" s="17"/>
     </row>
-    <row r="229" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>239</v>
       </c>
@@ -9359,7 +9358,7 @@
       <c r="F229" s="11"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A230" s="13" t="s">
         <v>239</v>
       </c>
@@ -9372,7 +9371,7 @@
       <c r="F230" s="16"/>
       <c r="G230" s="17"/>
     </row>
-    <row r="231" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>239</v>
       </c>
@@ -9385,7 +9384,7 @@
       <c r="F231" s="11"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A232" s="13" t="s">
         <v>239</v>
       </c>
@@ -9398,7 +9397,7 @@
       <c r="F232" s="16"/>
       <c r="G232" s="17"/>
     </row>
-    <row r="233" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>239</v>
       </c>
@@ -9411,7 +9410,7 @@
       <c r="F233" s="11"/>
       <c r="G233" s="12"/>
     </row>
-    <row r="234" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A234" s="13" t="s">
         <v>239</v>
       </c>
@@ -9424,7 +9423,7 @@
       <c r="F234" s="16"/>
       <c r="G234" s="17"/>
     </row>
-    <row r="235" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>239</v>
       </c>
@@ -9437,7 +9436,7 @@
       <c r="F235" s="11"/>
       <c r="G235" s="12"/>
     </row>
-    <row r="236" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A236" s="13" t="s">
         <v>239</v>
       </c>
@@ -9450,7 +9449,7 @@
       <c r="F236" s="16"/>
       <c r="G236" s="17"/>
     </row>
-    <row r="237" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>239</v>
       </c>
@@ -9463,7 +9462,7 @@
       <c r="F237" s="11"/>
       <c r="G237" s="12"/>
     </row>
-    <row r="238" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A238" s="13" t="s">
         <v>239</v>
       </c>
@@ -9476,7 +9475,7 @@
       <c r="F238" s="16"/>
       <c r="G238" s="17"/>
     </row>
-    <row r="239" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>239</v>
       </c>
@@ -9489,7 +9488,7 @@
       <c r="F239" s="11"/>
       <c r="G239" s="12"/>
     </row>
-    <row r="240" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A240" s="13" t="s">
         <v>239</v>
       </c>
@@ -9502,7 +9501,7 @@
       <c r="F240" s="16"/>
       <c r="G240" s="17"/>
     </row>
-    <row r="241" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>239</v>
       </c>
@@ -9515,7 +9514,7 @@
       <c r="F241" s="11"/>
       <c r="G241" s="12"/>
     </row>
-    <row r="242" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A242" s="13" t="s">
         <v>239</v>
       </c>
@@ -9528,7 +9527,7 @@
       <c r="F242" s="16"/>
       <c r="G242" s="17"/>
     </row>
-    <row r="243" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>239</v>
       </c>
@@ -9541,7 +9540,7 @@
       <c r="F243" s="11"/>
       <c r="G243" s="12"/>
     </row>
-    <row r="244" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A244" s="13" t="s">
         <v>239</v>
       </c>
@@ -9554,7 +9553,7 @@
       <c r="F244" s="16"/>
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>239</v>
       </c>
@@ -9567,7 +9566,7 @@
       <c r="F245" s="11"/>
       <c r="G245" s="12"/>
     </row>
-    <row r="246" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A246" s="13" t="s">
         <v>239</v>
       </c>
@@ -9580,7 +9579,7 @@
       <c r="F246" s="16"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>239</v>
       </c>
@@ -9593,7 +9592,7 @@
       <c r="F247" s="11"/>
       <c r="G247" s="12"/>
     </row>
-    <row r="248" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A248" s="13" t="s">
         <v>239</v>
       </c>
@@ -9606,7 +9605,7 @@
       <c r="F248" s="16"/>
       <c r="G248" s="17"/>
     </row>
-    <row r="249" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
         <v>239</v>
       </c>
@@ -9619,7 +9618,7 @@
       <c r="F249" s="11"/>
       <c r="G249" s="12"/>
     </row>
-    <row r="250" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A250" s="13" t="s">
         <v>239</v>
       </c>
@@ -9632,7 +9631,7 @@
       <c r="F250" s="16"/>
       <c r="G250" s="17"/>
     </row>
-    <row r="251" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>239</v>
       </c>
@@ -9645,7 +9644,7 @@
       <c r="F251" s="11"/>
       <c r="G251" s="12"/>
     </row>
-    <row r="252" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A252" s="13" t="s">
         <v>239</v>
       </c>
@@ -9658,7 +9657,7 @@
       <c r="F252" s="16"/>
       <c r="G252" s="17"/>
     </row>
-    <row r="253" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>239</v>
       </c>
@@ -9671,7 +9670,7 @@
       <c r="F253" s="11"/>
       <c r="G253" s="12"/>
     </row>
-    <row r="254" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A254" s="13" t="s">
         <v>239</v>
       </c>
@@ -9684,7 +9683,7 @@
       <c r="F254" s="16"/>
       <c r="G254" s="17"/>
     </row>
-    <row r="255" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>274</v>
       </c>
@@ -9697,7 +9696,7 @@
       <c r="F255" s="11"/>
       <c r="G255" s="12"/>
     </row>
-    <row r="256" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A256" s="13" t="s">
         <v>274</v>
       </c>
@@ -9710,7 +9709,7 @@
       <c r="F256" s="16"/>
       <c r="G256" s="17"/>
     </row>
-    <row r="257" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A257" s="9" t="s">
         <v>274</v>
       </c>
@@ -9723,7 +9722,7 @@
       <c r="F257" s="11"/>
       <c r="G257" s="12"/>
     </row>
-    <row r="258" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A258" s="13" t="s">
         <v>274</v>
       </c>
@@ -9736,7 +9735,7 @@
       <c r="F258" s="16"/>
       <c r="G258" s="17"/>
     </row>
-    <row r="259" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A259" s="9" t="s">
         <v>274</v>
       </c>
@@ -9749,7 +9748,7 @@
       <c r="F259" s="11"/>
       <c r="G259" s="12"/>
     </row>
-    <row r="260" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A260" s="13" t="s">
         <v>274</v>
       </c>
@@ -9762,7 +9761,7 @@
       <c r="F260" s="16"/>
       <c r="G260" s="17"/>
     </row>
-    <row r="261" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A261" s="9" t="s">
         <v>274</v>
       </c>
@@ -9775,7 +9774,7 @@
       <c r="F261" s="11"/>
       <c r="G261" s="12"/>
     </row>
-    <row r="262" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A262" s="13" t="s">
         <v>274</v>
       </c>
@@ -9788,7 +9787,7 @@
       <c r="F262" s="16"/>
       <c r="G262" s="17"/>
     </row>
-    <row r="263" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>274</v>
       </c>
@@ -9801,7 +9800,7 @@
       <c r="F263" s="11"/>
       <c r="G263" s="12"/>
     </row>
-    <row r="264" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A264" s="13" t="s">
         <v>274</v>
       </c>
@@ -9814,7 +9813,7 @@
       <c r="F264" s="16"/>
       <c r="G264" s="17"/>
     </row>
-    <row r="265" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>274</v>
       </c>
@@ -9827,7 +9826,7 @@
       <c r="F265" s="11"/>
       <c r="G265" s="12"/>
     </row>
-    <row r="266" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A266" s="13" t="s">
         <v>274</v>
       </c>
@@ -9840,7 +9839,7 @@
       <c r="F266" s="16"/>
       <c r="G266" s="17"/>
     </row>
-    <row r="267" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>274</v>
       </c>
@@ -9853,7 +9852,7 @@
       <c r="F267" s="11"/>
       <c r="G267" s="12"/>
     </row>
-    <row r="268" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A268" s="13" t="s">
         <v>274</v>
       </c>
@@ -9866,7 +9865,7 @@
       <c r="F268" s="16"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
         <v>274</v>
       </c>
@@ -9879,7 +9878,7 @@
       <c r="F269" s="11"/>
       <c r="G269" s="12"/>
     </row>
-    <row r="270" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A270" s="13" t="s">
         <v>274</v>
       </c>
@@ -9892,7 +9891,7 @@
       <c r="F270" s="16"/>
       <c r="G270" s="17"/>
     </row>
-    <row r="271" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
         <v>274</v>
       </c>
@@ -9905,7 +9904,7 @@
       <c r="F271" s="11"/>
       <c r="G271" s="12"/>
     </row>
-    <row r="272" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A272" s="13" t="s">
         <v>274</v>
       </c>
@@ -9918,7 +9917,7 @@
       <c r="F272" s="16"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
         <v>274</v>
       </c>
@@ -9931,7 +9930,7 @@
       <c r="F273" s="11"/>
       <c r="G273" s="12"/>
     </row>
-    <row r="274" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A274" s="13" t="s">
         <v>294</v>
       </c>
@@ -9944,7 +9943,7 @@
       <c r="F274" s="16"/>
       <c r="G274" s="17"/>
     </row>
-    <row r="275" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>294</v>
       </c>
@@ -9957,7 +9956,7 @@
       <c r="F275" s="11"/>
       <c r="G275" s="12"/>
     </row>
-    <row r="276" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A276" s="13" t="s">
         <v>294</v>
       </c>
@@ -9970,7 +9969,7 @@
       <c r="F276" s="16"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
         <v>294</v>
       </c>
@@ -9983,7 +9982,7 @@
       <c r="F277" s="11"/>
       <c r="G277" s="12"/>
     </row>
-    <row r="278" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A278" s="13" t="s">
         <v>294</v>
       </c>
@@ -9996,7 +9995,7 @@
       <c r="F278" s="16"/>
       <c r="G278" s="17"/>
     </row>
-    <row r="279" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
         <v>294</v>
       </c>
@@ -10009,7 +10008,7 @@
       <c r="F279" s="11"/>
       <c r="G279" s="12"/>
     </row>
-    <row r="280" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A280" s="13" t="s">
         <v>294</v>
       </c>
@@ -10022,7 +10021,7 @@
       <c r="F280" s="16"/>
       <c r="G280" s="17"/>
     </row>
-    <row r="281" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>294</v>
       </c>
@@ -10035,7 +10034,7 @@
       <c r="F281" s="11"/>
       <c r="G281" s="12"/>
     </row>
-    <row r="282" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A282" s="13" t="s">
         <v>294</v>
       </c>
@@ -10048,7 +10047,7 @@
       <c r="F282" s="16"/>
       <c r="G282" s="17"/>
     </row>
-    <row r="283" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
         <v>294</v>
       </c>
@@ -10061,7 +10060,7 @@
       <c r="F283" s="11"/>
       <c r="G283" s="12"/>
     </row>
-    <row r="284" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A284" s="13" t="s">
         <v>294</v>
       </c>
@@ -10074,7 +10073,7 @@
       <c r="F284" s="16"/>
       <c r="G284" s="17"/>
     </row>
-    <row r="285" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A285" s="9" t="s">
         <v>294</v>
       </c>
@@ -10087,7 +10086,7 @@
       <c r="F285" s="11"/>
       <c r="G285" s="12"/>
     </row>
-    <row r="286" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A286" s="13" t="s">
         <v>294</v>
       </c>
@@ -10100,7 +10099,7 @@
       <c r="F286" s="16"/>
       <c r="G286" s="17"/>
     </row>
-    <row r="287" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
         <v>294</v>
       </c>
@@ -10113,7 +10112,7 @@
       <c r="F287" s="11"/>
       <c r="G287" s="12"/>
     </row>
-    <row r="288" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A288" s="13" t="s">
         <v>294</v>
       </c>
@@ -10126,7 +10125,7 @@
       <c r="F288" s="16"/>
       <c r="G288" s="17"/>
     </row>
-    <row r="289" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A289" s="9" t="s">
         <v>294</v>
       </c>
@@ -10139,7 +10138,7 @@
       <c r="F289" s="11"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A290" s="13" t="s">
         <v>294</v>
       </c>
@@ -10152,7 +10151,7 @@
       <c r="F290" s="16"/>
       <c r="G290" s="17"/>
     </row>
-    <row r="291" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
         <v>294</v>
       </c>
@@ -10165,7 +10164,7 @@
       <c r="F291" s="11"/>
       <c r="G291" s="12"/>
     </row>
-    <row r="292" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A292" s="13" t="s">
         <v>294</v>
       </c>
@@ -10178,7 +10177,7 @@
       <c r="F292" s="16"/>
       <c r="G292" s="17"/>
     </row>
-    <row r="293" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
         <v>294</v>
       </c>
@@ -10191,7 +10190,7 @@
       <c r="F293" s="11"/>
       <c r="G293" s="12"/>
     </row>
-    <row r="294" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A294" s="13" t="s">
         <v>294</v>
       </c>
@@ -10204,7 +10203,7 @@
       <c r="F294" s="16"/>
       <c r="G294" s="17"/>
     </row>
-    <row r="295" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A295" s="9" t="s">
         <v>294</v>
       </c>
@@ -10217,7 +10216,7 @@
       <c r="F295" s="11"/>
       <c r="G295" s="12"/>
     </row>
-    <row r="296" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A296" s="13" t="s">
         <v>294</v>
       </c>
@@ -10230,7 +10229,7 @@
       <c r="F296" s="16"/>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
         <v>294</v>
       </c>
@@ -10243,7 +10242,7 @@
       <c r="F297" s="11"/>
       <c r="G297" s="12"/>
     </row>
-    <row r="298" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A298" s="13" t="s">
         <v>294</v>
       </c>
@@ -10256,7 +10255,7 @@
       <c r="F298" s="16"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A299" s="9" t="s">
         <v>294</v>
       </c>
@@ -10269,7 +10268,7 @@
       <c r="F299" s="11"/>
       <c r="G299" s="12"/>
     </row>
-    <row r="300" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A300" s="13" t="s">
         <v>294</v>
       </c>
@@ -10282,7 +10281,7 @@
       <c r="F300" s="16"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A301" s="9" t="s">
         <v>294</v>
       </c>
@@ -10295,7 +10294,7 @@
       <c r="F301" s="11"/>
       <c r="G301" s="12"/>
     </row>
-    <row r="302" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A302" s="13" t="s">
         <v>294</v>
       </c>
@@ -10308,7 +10307,7 @@
       <c r="F302" s="16"/>
       <c r="G302" s="17"/>
     </row>
-    <row r="303" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A303" s="9" t="s">
         <v>294</v>
       </c>
@@ -10321,7 +10320,7 @@
       <c r="F303" s="11"/>
       <c r="G303" s="12"/>
     </row>
-    <row r="304" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A304" s="13" t="s">
         <v>294</v>
       </c>
@@ -10334,7 +10333,7 @@
       <c r="F304" s="16"/>
       <c r="G304" s="17"/>
     </row>
-    <row r="305" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A305" s="9" t="s">
         <v>294</v>
       </c>
@@ -10347,7 +10346,7 @@
       <c r="F305" s="11"/>
       <c r="G305" s="12"/>
     </row>
-    <row r="306" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A306" s="13" t="s">
         <v>294</v>
       </c>
@@ -10360,7 +10359,7 @@
       <c r="F306" s="16"/>
       <c r="G306" s="17"/>
     </row>
-    <row r="307" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A307" s="9" t="s">
         <v>294</v>
       </c>
@@ -10373,7 +10372,7 @@
       <c r="F307" s="11"/>
       <c r="G307" s="12"/>
     </row>
-    <row r="308" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A308" s="13" t="s">
         <v>294</v>
       </c>
@@ -10386,7 +10385,7 @@
       <c r="F308" s="16"/>
       <c r="G308" s="17"/>
     </row>
-    <row r="309" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A309" s="9" t="s">
         <v>294</v>
       </c>
@@ -10399,7 +10398,7 @@
       <c r="F309" s="11"/>
       <c r="G309" s="12"/>
     </row>
-    <row r="310" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A310" s="13" t="s">
         <v>294</v>
       </c>
@@ -10412,7 +10411,7 @@
       <c r="F310" s="16"/>
       <c r="G310" s="17"/>
     </row>
-    <row r="311" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A311" s="9" t="s">
         <v>294</v>
       </c>
@@ -10425,7 +10424,7 @@
       <c r="F311" s="11"/>
       <c r="G311" s="12"/>
     </row>
-    <row r="312" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A312" s="13" t="s">
         <v>333</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A313" s="9" t="s">
         <v>333</v>
       </c>
@@ -10471,7 +10470,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A314" s="13" t="s">
         <v>333</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
         <v>333</v>
       </c>
@@ -10517,7 +10516,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -10540,7 +10539,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
         <v>333</v>
       </c>
@@ -10563,7 +10562,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A318" s="13" t="s">
         <v>333</v>
       </c>
@@ -10586,7 +10585,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
         <v>333</v>
       </c>
@@ -10609,7 +10608,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A320" s="13" t="s">
         <v>333</v>
       </c>
@@ -10622,7 +10621,7 @@
       <c r="F320" s="16"/>
       <c r="G320" s="17"/>
     </row>
-    <row r="321" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A321" s="9" t="s">
         <v>333</v>
       </c>
@@ -10635,7 +10634,7 @@
       <c r="F321" s="11"/>
       <c r="G321" s="12"/>
     </row>
-    <row r="322" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A322" s="13" t="s">
         <v>333</v>
       </c>
@@ -10648,7 +10647,7 @@
       <c r="F322" s="16"/>
       <c r="G322" s="17"/>
     </row>
-    <row r="323" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A323" s="9" t="s">
         <v>333</v>
       </c>
@@ -10661,7 +10660,7 @@
       <c r="F323" s="11"/>
       <c r="G323" s="12"/>
     </row>
-    <row r="324" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A324" s="13" t="s">
         <v>333</v>
       </c>
@@ -10674,7 +10673,7 @@
       <c r="F324" s="16"/>
       <c r="G324" s="17"/>
     </row>
-    <row r="325" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A325" s="9" t="s">
         <v>333</v>
       </c>
@@ -10687,7 +10686,7 @@
       <c r="F325" s="11"/>
       <c r="G325" s="12"/>
     </row>
-    <row r="326" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A326" s="13" t="s">
         <v>333</v>
       </c>
@@ -10700,7 +10699,7 @@
       <c r="F326" s="16"/>
       <c r="G326" s="17"/>
     </row>
-    <row r="327" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A327" s="9" t="s">
         <v>333</v>
       </c>
@@ -10713,7 +10712,7 @@
       <c r="F327" s="11"/>
       <c r="G327" s="12"/>
     </row>
-    <row r="328" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A328" s="13" t="s">
         <v>333</v>
       </c>
@@ -10726,7 +10725,7 @@
       <c r="F328" s="16"/>
       <c r="G328" s="17"/>
     </row>
-    <row r="329" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A329" s="9" t="s">
         <v>333</v>
       </c>
@@ -10739,7 +10738,7 @@
       <c r="F329" s="11"/>
       <c r="G329" s="12"/>
     </row>
-    <row r="330" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A330" s="13" t="s">
         <v>360</v>
       </c>
@@ -10752,7 +10751,7 @@
       <c r="F330" s="16"/>
       <c r="G330" s="17"/>
     </row>
-    <row r="331" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A331" s="9" t="s">
         <v>360</v>
       </c>
@@ -10765,7 +10764,7 @@
       <c r="F331" s="11"/>
       <c r="G331" s="12"/>
     </row>
-    <row r="332" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A332" s="13" t="s">
         <v>360</v>
       </c>
@@ -10778,7 +10777,7 @@
       <c r="F332" s="16"/>
       <c r="G332" s="17"/>
     </row>
-    <row r="333" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A333" s="9" t="s">
         <v>360</v>
       </c>
@@ -10791,7 +10790,7 @@
       <c r="F333" s="11"/>
       <c r="G333" s="12"/>
     </row>
-    <row r="334" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A334" s="13" t="s">
         <v>360</v>
       </c>
@@ -10804,7 +10803,7 @@
       <c r="F334" s="16"/>
       <c r="G334" s="17"/>
     </row>
-    <row r="335" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A335" s="9" t="s">
         <v>360</v>
       </c>
@@ -10817,7 +10816,7 @@
       <c r="F335" s="11"/>
       <c r="G335" s="12"/>
     </row>
-    <row r="336" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A336" s="13" t="s">
         <v>360</v>
       </c>
@@ -10830,7 +10829,7 @@
       <c r="F336" s="16"/>
       <c r="G336" s="17"/>
     </row>
-    <row r="337" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A337" s="9" t="s">
         <v>360</v>
       </c>
@@ -10843,7 +10842,7 @@
       <c r="F337" s="11"/>
       <c r="G337" s="12"/>
     </row>
-    <row r="338" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A338" s="13" t="s">
         <v>360</v>
       </c>
@@ -10856,7 +10855,7 @@
       <c r="F338" s="16"/>
       <c r="G338" s="17"/>
     </row>
-    <row r="339" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A339" s="9" t="s">
         <v>360</v>
       </c>
@@ -10869,7 +10868,7 @@
       <c r="F339" s="11"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A340" s="13" t="s">
         <v>360</v>
       </c>
@@ -10882,7 +10881,7 @@
       <c r="F340" s="16"/>
       <c r="G340" s="17"/>
     </row>
-    <row r="341" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A341" s="9" t="s">
         <v>360</v>
       </c>
@@ -10895,7 +10894,7 @@
       <c r="F341" s="11"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A342" s="13" t="s">
         <v>360</v>
       </c>
@@ -10908,7 +10907,7 @@
       <c r="F342" s="16"/>
       <c r="G342" s="17"/>
     </row>
-    <row r="343" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A343" s="9" t="s">
         <v>360</v>
       </c>
@@ -10921,7 +10920,7 @@
       <c r="F343" s="11"/>
       <c r="G343" s="12"/>
     </row>
-    <row r="344" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A344" s="13" t="s">
         <v>360</v>
       </c>
@@ -10934,7 +10933,7 @@
       <c r="F344" s="16"/>
       <c r="G344" s="17"/>
     </row>
-    <row r="345" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A345" s="9" t="s">
         <v>360</v>
       </c>
@@ -10947,7 +10946,7 @@
       <c r="F345" s="11"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A346" s="13" t="s">
         <v>360</v>
       </c>
@@ -10960,7 +10959,7 @@
       <c r="F346" s="16"/>
       <c r="G346" s="17"/>
     </row>
-    <row r="347" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A347" s="9" t="s">
         <v>360</v>
       </c>
@@ -10973,7 +10972,7 @@
       <c r="F347" s="11"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A348" s="13" t="s">
         <v>360</v>
       </c>
@@ -10986,7 +10985,7 @@
       <c r="F348" s="16"/>
       <c r="G348" s="17"/>
     </row>
-    <row r="349" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A349" s="9" t="s">
         <v>360</v>
       </c>
@@ -10999,7 +10998,7 @@
       <c r="F349" s="11"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A350" s="13" t="s">
         <v>360</v>
       </c>
@@ -11012,7 +11011,7 @@
       <c r="F350" s="16"/>
       <c r="G350" s="17"/>
     </row>
-    <row r="351" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A351" s="9" t="s">
         <v>360</v>
       </c>
@@ -11025,7 +11024,7 @@
       <c r="F351" s="11"/>
       <c r="G351" s="12"/>
     </row>
-    <row r="352" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A352" s="13" t="s">
         <v>360</v>
       </c>
@@ -11038,7 +11037,7 @@
       <c r="F352" s="16"/>
       <c r="G352" s="17"/>
     </row>
-    <row r="353" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
         <v>360</v>
       </c>
@@ -11051,7 +11050,7 @@
       <c r="F353" s="11"/>
       <c r="G353" s="12"/>
     </row>
-    <row r="354" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A354" s="13" t="s">
         <v>360</v>
       </c>
@@ -11064,7 +11063,7 @@
       <c r="F354" s="16"/>
       <c r="G354" s="17"/>
     </row>
-    <row r="355" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A355" s="9" t="s">
         <v>360</v>
       </c>
@@ -11077,7 +11076,7 @@
       <c r="F355" s="11"/>
       <c r="G355" s="12"/>
     </row>
-    <row r="356" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A356" s="13" t="s">
         <v>360</v>
       </c>
@@ -11090,7 +11089,7 @@
       <c r="F356" s="16"/>
       <c r="G356" s="17"/>
     </row>
-    <row r="357" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
         <v>360</v>
       </c>
@@ -11103,7 +11102,7 @@
       <c r="F357" s="11"/>
       <c r="G357" s="12"/>
     </row>
-    <row r="358" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A358" s="13" t="s">
         <v>360</v>
       </c>
@@ -11116,7 +11115,7 @@
       <c r="F358" s="16"/>
       <c r="G358" s="17"/>
     </row>
-    <row r="359" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
         <v>360</v>
       </c>
@@ -11129,7 +11128,7 @@
       <c r="F359" s="11"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A360" s="13" t="s">
         <v>360</v>
       </c>
@@ -11142,7 +11141,7 @@
       <c r="F360" s="16"/>
       <c r="G360" s="17"/>
     </row>
-    <row r="361" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
         <v>360</v>
       </c>
@@ -11155,7 +11154,7 @@
       <c r="F361" s="11"/>
       <c r="G361" s="12"/>
     </row>
-    <row r="362" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A362" s="13" t="s">
         <v>360</v>
       </c>
@@ -11168,7 +11167,7 @@
       <c r="F362" s="16"/>
       <c r="G362" s="17"/>
     </row>
-    <row r="363" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
         <v>360</v>
       </c>
@@ -11181,7 +11180,7 @@
       <c r="F363" s="11"/>
       <c r="G363" s="12"/>
     </row>
-    <row r="364" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A364" s="13" t="s">
         <v>360</v>
       </c>
@@ -11194,7 +11193,7 @@
       <c r="F364" s="16"/>
       <c r="G364" s="17"/>
     </row>
-    <row r="365" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
         <v>360</v>
       </c>
@@ -11207,7 +11206,7 @@
       <c r="F365" s="11"/>
       <c r="G365" s="12"/>
     </row>
-    <row r="366" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A366" s="13" t="s">
         <v>360</v>
       </c>
@@ -11220,7 +11219,7 @@
       <c r="F366" s="16"/>
       <c r="G366" s="17"/>
     </row>
-    <row r="367" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
         <v>360</v>
       </c>
@@ -11233,7 +11232,7 @@
       <c r="F367" s="11"/>
       <c r="G367" s="12"/>
     </row>
-    <row r="368" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A368" s="13" t="s">
         <v>360</v>
       </c>
@@ -11246,7 +11245,7 @@
       <c r="F368" s="16"/>
       <c r="G368" s="17"/>
     </row>
-    <row r="369" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A369" s="9" t="s">
         <v>360</v>
       </c>
@@ -11259,7 +11258,7 @@
       <c r="F369" s="11"/>
       <c r="G369" s="12"/>
     </row>
-    <row r="370" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A370" s="13" t="s">
         <v>360</v>
       </c>
@@ -11272,7 +11271,7 @@
       <c r="F370" s="16"/>
       <c r="G370" s="17"/>
     </row>
-    <row r="371" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A371" s="9" t="s">
         <v>360</v>
       </c>
@@ -11285,7 +11284,7 @@
       <c r="F371" s="11"/>
       <c r="G371" s="12"/>
     </row>
-    <row r="372" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A372" s="13" t="s">
         <v>360</v>
       </c>
@@ -11298,7 +11297,7 @@
       <c r="F372" s="16"/>
       <c r="G372" s="17"/>
     </row>
-    <row r="373" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A373" s="9" t="s">
         <v>360</v>
       </c>
@@ -11311,7 +11310,7 @@
       <c r="F373" s="11"/>
       <c r="G373" s="12"/>
     </row>
-    <row r="374" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A374" s="13" t="s">
         <v>404</v>
       </c>
@@ -11324,7 +11323,7 @@
       <c r="F374" s="16"/>
       <c r="G374" s="17"/>
     </row>
-    <row r="375" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A375" s="9" t="s">
         <v>404</v>
       </c>
@@ -11337,7 +11336,7 @@
       <c r="F375" s="11"/>
       <c r="G375" s="12"/>
     </row>
-    <row r="376" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A376" s="13" t="s">
         <v>404</v>
       </c>
@@ -11350,7 +11349,7 @@
       <c r="F376" s="16"/>
       <c r="G376" s="17"/>
     </row>
-    <row r="377" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A377" s="9" t="s">
         <v>404</v>
       </c>
@@ -11363,7 +11362,7 @@
       <c r="F377" s="11"/>
       <c r="G377" s="12"/>
     </row>
-    <row r="378" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A378" s="13" t="s">
         <v>404</v>
       </c>
@@ -11376,7 +11375,7 @@
       <c r="F378" s="16"/>
       <c r="G378" s="17"/>
     </row>
-    <row r="379" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
         <v>404</v>
       </c>
@@ -11389,7 +11388,7 @@
       <c r="F379" s="11"/>
       <c r="G379" s="12"/>
     </row>
-    <row r="380" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A380" s="13" t="s">
         <v>410</v>
       </c>
@@ -11402,7 +11401,7 @@
       <c r="F380" s="16"/>
       <c r="G380" s="17"/>
     </row>
-    <row r="381" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A381" s="9" t="s">
         <v>410</v>
       </c>
@@ -11415,7 +11414,7 @@
       <c r="F381" s="11"/>
       <c r="G381" s="12"/>
     </row>
-    <row r="382" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A382" s="13" t="s">
         <v>410</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
         <v>410</v>
       </c>
@@ -11461,7 +11460,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A384" s="13" t="s">
         <v>410</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
         <v>410</v>
       </c>
@@ -11497,7 +11496,7 @@
       <c r="F385" s="11"/>
       <c r="G385" s="12"/>
     </row>
-    <row r="386" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A386" s="13" t="s">
         <v>410</v>
       </c>
@@ -11510,7 +11509,7 @@
       <c r="F386" s="16"/>
       <c r="G386" s="17"/>
     </row>
-    <row r="387" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
         <v>410</v>
       </c>
@@ -11523,7 +11522,7 @@
       <c r="F387" s="11"/>
       <c r="G387" s="12"/>
     </row>
-    <row r="388" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A388" s="13" t="s">
         <v>410</v>
       </c>
@@ -11546,7 +11545,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
         <v>410</v>
       </c>
@@ -11567,7 +11566,7 @@
       </c>
       <c r="G389" s="12"/>
     </row>
-    <row r="390" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A390" s="13" t="s">
         <v>410</v>
       </c>
@@ -11580,7 +11579,7 @@
       <c r="F390" s="16"/>
       <c r="G390" s="17"/>
     </row>
-    <row r="391" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
         <v>410</v>
       </c>
@@ -11593,7 +11592,7 @@
       <c r="F391" s="11"/>
       <c r="G391" s="12"/>
     </row>
-    <row r="392" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A392" s="13" t="s">
         <v>410</v>
       </c>
@@ -11606,7 +11605,7 @@
       <c r="F392" s="16"/>
       <c r="G392" s="17"/>
     </row>
-    <row r="393" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
         <v>410</v>
       </c>
@@ -11619,7 +11618,7 @@
       <c r="F393" s="11"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A394" s="13" t="s">
         <v>410</v>
       </c>
@@ -11632,7 +11631,7 @@
       <c r="F394" s="16"/>
       <c r="G394" s="17"/>
     </row>
-    <row r="395" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
         <v>410</v>
       </c>
@@ -11645,7 +11644,7 @@
       <c r="F395" s="11"/>
       <c r="G395" s="12"/>
     </row>
-    <row r="396" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A396" s="13" t="s">
         <v>410</v>
       </c>
@@ -11658,7 +11657,7 @@
       <c r="F396" s="16"/>
       <c r="G396" s="17"/>
     </row>
-    <row r="397" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
         <v>410</v>
       </c>
@@ -11671,7 +11670,7 @@
       <c r="F397" s="11"/>
       <c r="G397" s="12"/>
     </row>
-    <row r="398" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A398" s="13" t="s">
         <v>410</v>
       </c>
@@ -11684,7 +11683,7 @@
       <c r="F398" s="16"/>
       <c r="G398" s="17"/>
     </row>
-    <row r="399" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
         <v>410</v>
       </c>
@@ -11697,7 +11696,7 @@
       <c r="F399" s="11"/>
       <c r="G399" s="12"/>
     </row>
-    <row r="400" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A400" s="13" t="s">
         <v>410</v>
       </c>
@@ -11710,7 +11709,7 @@
       <c r="F400" s="16"/>
       <c r="G400" s="17"/>
     </row>
-    <row r="401" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A401" s="9" t="s">
         <v>410</v>
       </c>
@@ -11723,7 +11722,7 @@
       <c r="F401" s="11"/>
       <c r="G401" s="12"/>
     </row>
-    <row r="402" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A402" s="13" t="s">
         <v>410</v>
       </c>
@@ -11736,7 +11735,7 @@
       <c r="F402" s="16"/>
       <c r="G402" s="17"/>
     </row>
-    <row r="403" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
         <v>410</v>
       </c>
@@ -11749,7 +11748,7 @@
       <c r="F403" s="11"/>
       <c r="G403" s="12"/>
     </row>
-    <row r="404" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A404" s="13" t="s">
         <v>410</v>
       </c>
@@ -11762,7 +11761,7 @@
       <c r="F404" s="16"/>
       <c r="G404" s="17"/>
     </row>
-    <row r="405" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A405" s="9" t="s">
         <v>410</v>
       </c>
@@ -11775,7 +11774,7 @@
       <c r="F405" s="11"/>
       <c r="G405" s="12"/>
     </row>
-    <row r="406" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A406" s="13" t="s">
         <v>410</v>
       </c>
@@ -11788,7 +11787,7 @@
       <c r="F406" s="16"/>
       <c r="G406" s="17"/>
     </row>
-    <row r="407" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
         <v>410</v>
       </c>
@@ -11801,7 +11800,7 @@
       <c r="F407" s="11"/>
       <c r="G407" s="12"/>
     </row>
-    <row r="408" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A408" s="13" t="s">
         <v>410</v>
       </c>
@@ -11814,7 +11813,7 @@
       <c r="F408" s="16"/>
       <c r="G408" s="17"/>
     </row>
-    <row r="409" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A409" s="9" t="s">
         <v>410</v>
       </c>
@@ -11827,7 +11826,7 @@
       <c r="F409" s="11"/>
       <c r="G409" s="12"/>
     </row>
-    <row r="410" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A410" s="13" t="s">
         <v>410</v>
       </c>
@@ -11840,7 +11839,7 @@
       <c r="F410" s="16"/>
       <c r="G410" s="17"/>
     </row>
-    <row r="411" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A411" s="9" t="s">
         <v>410</v>
       </c>
@@ -11853,7 +11852,7 @@
       <c r="F411" s="11"/>
       <c r="G411" s="12"/>
     </row>
-    <row r="412" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A412" s="13" t="s">
         <v>410</v>
       </c>
@@ -11866,7 +11865,7 @@
       <c r="F412" s="16"/>
       <c r="G412" s="17"/>
     </row>
-    <row r="413" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A413" s="9" t="s">
         <v>410</v>
       </c>
@@ -11879,7 +11878,7 @@
       <c r="F413" s="11"/>
       <c r="G413" s="12"/>
     </row>
-    <row r="414" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A414" s="13" t="s">
         <v>410</v>
       </c>
@@ -11892,7 +11891,7 @@
       <c r="F414" s="16"/>
       <c r="G414" s="17"/>
     </row>
-    <row r="415" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A415" s="9" t="s">
         <v>410</v>
       </c>
@@ -11905,7 +11904,7 @@
       <c r="F415" s="11"/>
       <c r="G415" s="12"/>
     </row>
-    <row r="416" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A416" s="13" t="s">
         <v>410</v>
       </c>
@@ -11918,7 +11917,7 @@
       <c r="F416" s="16"/>
       <c r="G416" s="17"/>
     </row>
-    <row r="417" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A417" s="9" t="s">
         <v>410</v>
       </c>
@@ -11931,7 +11930,7 @@
       <c r="F417" s="11"/>
       <c r="G417" s="12"/>
     </row>
-    <row r="418" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A418" s="13" t="s">
         <v>410</v>
       </c>
@@ -11944,7 +11943,7 @@
       <c r="F418" s="16"/>
       <c r="G418" s="17"/>
     </row>
-    <row r="419" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A419" s="9" t="s">
         <v>410</v>
       </c>
@@ -11957,7 +11956,7 @@
       <c r="F419" s="11"/>
       <c r="G419" s="12"/>
     </row>
-    <row r="420" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A420" s="13" t="s">
         <v>410</v>
       </c>
@@ -11970,7 +11969,7 @@
       <c r="F420" s="16"/>
       <c r="G420" s="17"/>
     </row>
-    <row r="421" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A421" s="9" t="s">
         <v>410</v>
       </c>
@@ -11983,7 +11982,7 @@
       <c r="F421" s="11"/>
       <c r="G421" s="12"/>
     </row>
-    <row r="422" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A422" s="13" t="s">
         <v>410</v>
       </c>
@@ -11996,7 +11995,7 @@
       <c r="F422" s="16"/>
       <c r="G422" s="17"/>
     </row>
-    <row r="423" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A423" s="9" t="s">
         <v>410</v>
       </c>
@@ -12009,7 +12008,7 @@
       <c r="F423" s="11"/>
       <c r="G423" s="12"/>
     </row>
-    <row r="424" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A424" s="13" t="s">
         <v>410</v>
       </c>
@@ -12022,7 +12021,7 @@
       <c r="F424" s="16"/>
       <c r="G424" s="17"/>
     </row>
-    <row r="425" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A425" s="9" t="s">
         <v>410</v>
       </c>
@@ -12035,7 +12034,7 @@
       <c r="F425" s="11"/>
       <c r="G425" s="12"/>
     </row>
-    <row r="426" spans="1:7" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A426" s="13" t="s">
         <v>410</v>
       </c>
@@ -12048,7 +12047,7 @@
       <c r="F426" s="16"/>
       <c r="G426" s="17"/>
     </row>
-    <row r="427" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A427" s="9" t="s">
         <v>410</v>
       </c>
@@ -12061,7 +12060,7 @@
       <c r="F427" s="11"/>
       <c r="G427" s="12"/>
     </row>
-    <row r="428" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A428" s="13" t="s">
         <v>410</v>
       </c>
@@ -12074,7 +12073,7 @@
       <c r="F428" s="16"/>
       <c r="G428" s="17"/>
     </row>
-    <row r="429" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A429" s="9" t="s">
         <v>410</v>
       </c>
@@ -12087,7 +12086,7 @@
       <c r="F429" s="11"/>
       <c r="G429" s="12"/>
     </row>
-    <row r="430" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A430" s="13" t="s">
         <v>410</v>
       </c>
@@ -12100,7 +12099,7 @@
       <c r="F430" s="16"/>
       <c r="G430" s="17"/>
     </row>
-    <row r="431" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A431" s="9" t="s">
         <v>410</v>
       </c>
@@ -12113,7 +12112,7 @@
       <c r="F431" s="11"/>
       <c r="G431" s="12"/>
     </row>
-    <row r="432" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A432" s="13" t="s">
         <v>410</v>
       </c>
@@ -12126,7 +12125,7 @@
       <c r="F432" s="16"/>
       <c r="G432" s="17"/>
     </row>
-    <row r="433" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A433" s="9" t="s">
         <v>410</v>
       </c>
@@ -12139,7 +12138,7 @@
       <c r="F433" s="11"/>
       <c r="G433" s="12"/>
     </row>
-    <row r="434" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A434" s="13" t="s">
         <v>410</v>
       </c>
@@ -12152,7 +12151,7 @@
       <c r="F434" s="16"/>
       <c r="G434" s="17"/>
     </row>
-    <row r="435" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A435" s="9" t="s">
         <v>410</v>
       </c>
@@ -12165,7 +12164,7 @@
       <c r="F435" s="11"/>
       <c r="G435" s="12"/>
     </row>
-    <row r="436" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A436" s="13" t="s">
         <v>410</v>
       </c>
@@ -12178,7 +12177,7 @@
       <c r="F436" s="16"/>
       <c r="G436" s="17"/>
     </row>
-    <row r="437" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A437" s="9" t="s">
         <v>410</v>
       </c>
@@ -12191,7 +12190,7 @@
       <c r="F437" s="11"/>
       <c r="G437" s="12"/>
     </row>
-    <row r="438" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A438" s="13" t="s">
         <v>410</v>
       </c>
@@ -12204,7 +12203,7 @@
       <c r="F438" s="16"/>
       <c r="G438" s="17"/>
     </row>
-    <row r="439" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A439" s="9" t="s">
         <v>410</v>
       </c>
@@ -12217,7 +12216,7 @@
       <c r="F439" s="11"/>
       <c r="G439" s="12"/>
     </row>
-    <row r="440" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A440" s="13" t="s">
         <v>474</v>
       </c>
@@ -12230,7 +12229,7 @@
       <c r="F440" s="16"/>
       <c r="G440" s="17"/>
     </row>
-    <row r="441" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A441" s="9" t="s">
         <v>474</v>
       </c>
@@ -12243,7 +12242,7 @@
       <c r="F441" s="11"/>
       <c r="G441" s="12"/>
     </row>
-    <row r="442" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A442" s="13" t="s">
         <v>474</v>
       </c>
@@ -12256,7 +12255,7 @@
       <c r="F442" s="16"/>
       <c r="G442" s="17"/>
     </row>
-    <row r="443" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A443" s="9" t="s">
         <v>474</v>
       </c>
@@ -12269,7 +12268,7 @@
       <c r="F443" s="11"/>
       <c r="G443" s="12"/>
     </row>
-    <row r="444" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A444" s="13" t="s">
         <v>474</v>
       </c>
@@ -12282,7 +12281,7 @@
       <c r="F444" s="16"/>
       <c r="G444" s="17"/>
     </row>
-    <row r="445" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A445" s="9" t="s">
         <v>474</v>
       </c>
@@ -12295,7 +12294,7 @@
       <c r="F445" s="11"/>
       <c r="G445" s="12"/>
     </row>
-    <row r="446" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A446" s="13" t="s">
         <v>474</v>
       </c>
@@ -12308,7 +12307,7 @@
       <c r="F446" s="16"/>
       <c r="G446" s="17"/>
     </row>
-    <row r="447" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A447" s="9" t="s">
         <v>474</v>
       </c>
@@ -12321,7 +12320,7 @@
       <c r="F447" s="11"/>
       <c r="G447" s="12"/>
     </row>
-    <row r="448" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A448" s="13" t="s">
         <v>474</v>
       </c>
@@ -12334,7 +12333,7 @@
       <c r="F448" s="16"/>
       <c r="G448" s="17"/>
     </row>
-    <row r="449" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A449" s="9" t="s">
         <v>474</v>
       </c>
@@ -12347,7 +12346,7 @@
       <c r="F449" s="11"/>
       <c r="G449" s="12"/>
     </row>
-    <row r="450" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A450" s="25"/>
       <c r="B450" s="14" t="s">
         <v>485</v>
@@ -12358,7 +12357,7 @@
       <c r="F450" s="16"/>
       <c r="G450" s="17"/>
     </row>
-    <row r="451" spans="1:7" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A451" s="26"/>
       <c r="B451" s="27" t="s">
         <v>486</v>
@@ -12370,13 +12369,7 @@
       <c r="G451" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:IV451" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Binary Search Trees"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:IV451" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/DSA/FINAL450.xlsx
+++ b/DSA/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2453\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{33C82736-9654-4B89-9743-82954071747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{991AA1EB-29F0-4575-9721-B106DDA29C2C}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{33C82736-9654-4B89-9743-82954071747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7056A7BA-5476-4DEB-8EEE-58D48FB45F4D}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="494">
   <si>
     <t>Topic</t>
   </si>
@@ -5485,6 +5485,9 @@
   </si>
   <si>
     <t>Store inorder traversal in array, sort the array, and again do inorder traversal and store new values in the tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do inorder traversal to get sorted array, and then do binary search like algorithm to assign values to the nodes of the balanced BST </t>
   </si>
 </sst>
 </file>
@@ -6282,8 +6285,8 @@
   <dimension ref="A1:IV451"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H209" sqref="H209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6321,7 +6324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -6334,7 +6337,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -6347,7 +6350,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -6360,7 +6363,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -6373,7 +6376,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -6386,7 +6389,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -6399,7 +6402,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -6412,7 +6415,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -6425,7 +6428,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -6438,7 +6441,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -6451,7 +6454,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -6464,7 +6467,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
@@ -6477,7 +6480,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -6490,7 +6493,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
@@ -6503,7 +6506,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
@@ -6516,7 +6519,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
@@ -6529,7 +6532,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -6542,7 +6545,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -6555,7 +6558,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -6568,7 +6571,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -6581,7 +6584,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>7</v>
       </c>
@@ -6594,7 +6597,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
@@ -6607,7 +6610,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>7</v>
       </c>
@@ -6620,7 +6623,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
@@ -6633,7 +6636,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>7</v>
       </c>
@@ -6646,7 +6649,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>7</v>
       </c>
@@ -6659,7 +6662,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
@@ -6672,7 +6675,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -6685,7 +6688,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>7</v>
       </c>
@@ -6698,7 +6701,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>7</v>
       </c>
@@ -6711,7 +6714,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>7</v>
       </c>
@@ -6724,7 +6727,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -6737,7 +6740,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>7</v>
       </c>
@@ -6750,7 +6753,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>7</v>
       </c>
@@ -6763,7 +6766,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>7</v>
       </c>
@@ -6776,7 +6779,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>7</v>
       </c>
@@ -6789,7 +6792,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -6802,7 +6805,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -6815,7 +6818,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>44</v>
       </c>
@@ -6828,7 +6831,7 @@
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>44</v>
       </c>
@@ -6841,7 +6844,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>44</v>
       </c>
@@ -6854,7 +6857,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>44</v>
       </c>
@@ -6867,7 +6870,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>44</v>
       </c>
@@ -6880,7 +6883,7 @@
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
@@ -6893,7 +6896,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>44</v>
       </c>
@@ -6906,7 +6909,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>44</v>
       </c>
@@ -6919,7 +6922,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>55</v>
       </c>
@@ -6932,7 +6935,7 @@
       <c r="F48" s="16"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>55</v>
       </c>
@@ -6945,7 +6948,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>55</v>
       </c>
@@ -6971,7 +6974,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>55</v>
       </c>
@@ -6984,7 +6987,7 @@
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>55</v>
       </c>
@@ -6997,7 +7000,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>55</v>
       </c>
@@ -7010,7 +7013,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>55</v>
       </c>
@@ -7023,7 +7026,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
@@ -7036,7 +7039,7 @@
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
@@ -7049,7 +7052,7 @@
       <c r="F57" s="11"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>55</v>
       </c>
@@ -7062,7 +7065,7 @@
       <c r="F58" s="16"/>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>55</v>
       </c>
@@ -7075,7 +7078,7 @@
       <c r="F59" s="11"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>55</v>
       </c>
@@ -7088,7 +7091,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>55</v>
       </c>
@@ -7101,7 +7104,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>55</v>
       </c>
@@ -7114,7 +7117,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>55</v>
       </c>
@@ -7127,7 +7130,7 @@
       <c r="F63" s="11"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>55</v>
       </c>
@@ -7140,7 +7143,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>55</v>
       </c>
@@ -7153,7 +7156,7 @@
       <c r="F65" s="11"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>55</v>
       </c>
@@ -7166,7 +7169,7 @@
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>55</v>
       </c>
@@ -7179,7 +7182,7 @@
       <c r="F67" s="11"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>55</v>
       </c>
@@ -7192,7 +7195,7 @@
       <c r="F68" s="16"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>55</v>
       </c>
@@ -7205,7 +7208,7 @@
       <c r="F69" s="11"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>55</v>
       </c>
@@ -7218,7 +7221,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>55</v>
       </c>
@@ -7231,7 +7234,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>55</v>
       </c>
@@ -7244,7 +7247,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>55</v>
       </c>
@@ -7257,7 +7260,7 @@
       <c r="F73" s="11"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>55</v>
       </c>
@@ -7270,7 +7273,7 @@
       <c r="F74" s="16"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>55</v>
       </c>
@@ -7283,7 +7286,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>55</v>
       </c>
@@ -7296,7 +7299,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>55</v>
       </c>
@@ -7309,7 +7312,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>55</v>
       </c>
@@ -7322,7 +7325,7 @@
       <c r="F78" s="16"/>
       <c r="G78" s="17"/>
     </row>
-    <row r="79" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>55</v>
       </c>
@@ -7335,7 +7338,7 @@
       <c r="F79" s="11"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>55</v>
       </c>
@@ -7348,7 +7351,7 @@
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
     </row>
-    <row r="81" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>55</v>
       </c>
@@ -7361,7 +7364,7 @@
       <c r="F81" s="11"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>55</v>
       </c>
@@ -7374,7 +7377,7 @@
       <c r="F82" s="16"/>
       <c r="G82" s="17"/>
     </row>
-    <row r="83" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>55</v>
       </c>
@@ -7387,7 +7390,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>55</v>
       </c>
@@ -7400,7 +7403,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
     </row>
-    <row r="85" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>55</v>
       </c>
@@ -7413,7 +7416,7 @@
       <c r="F85" s="11"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>55</v>
       </c>
@@ -7426,7 +7429,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="17"/>
     </row>
-    <row r="87" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>55</v>
       </c>
@@ -7439,7 +7442,7 @@
       <c r="F87" s="11"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>55</v>
       </c>
@@ -7452,7 +7455,7 @@
       <c r="F88" s="16"/>
       <c r="G88" s="17"/>
     </row>
-    <row r="89" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>55</v>
       </c>
@@ -7465,7 +7468,7 @@
       <c r="F89" s="11"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>55</v>
       </c>
@@ -7478,7 +7481,7 @@
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
     </row>
-    <row r="91" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>99</v>
       </c>
@@ -7491,7 +7494,7 @@
       <c r="F91" s="11"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>99</v>
       </c>
@@ -7504,7 +7507,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="17"/>
     </row>
-    <row r="93" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>99</v>
       </c>
@@ -7517,7 +7520,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>99</v>
       </c>
@@ -7530,7 +7533,7 @@
       <c r="F94" s="16"/>
       <c r="G94" s="17"/>
     </row>
-    <row r="95" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>99</v>
       </c>
@@ -7543,7 +7546,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>99</v>
       </c>
@@ -7556,7 +7559,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="17"/>
     </row>
-    <row r="97" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>99</v>
       </c>
@@ -7569,7 +7572,7 @@
       <c r="F97" s="11"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>99</v>
       </c>
@@ -7582,7 +7585,7 @@
       <c r="F98" s="16"/>
       <c r="G98" s="17"/>
     </row>
-    <row r="99" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>99</v>
       </c>
@@ -7595,7 +7598,7 @@
       <c r="F99" s="11"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>99</v>
       </c>
@@ -7608,7 +7611,7 @@
       <c r="F100" s="16"/>
       <c r="G100" s="17"/>
     </row>
-    <row r="101" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>99</v>
       </c>
@@ -7621,7 +7624,7 @@
       <c r="F101" s="11"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>99</v>
       </c>
@@ -7634,7 +7637,7 @@
       <c r="F102" s="16"/>
       <c r="G102" s="17"/>
     </row>
-    <row r="103" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>99</v>
       </c>
@@ -7647,7 +7650,7 @@
       <c r="F103" s="11"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>99</v>
       </c>
@@ -7660,7 +7663,7 @@
       <c r="F104" s="16"/>
       <c r="G104" s="17"/>
     </row>
-    <row r="105" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>99</v>
       </c>
@@ -7673,7 +7676,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>99</v>
       </c>
@@ -7686,7 +7689,7 @@
       <c r="F106" s="16"/>
       <c r="G106" s="17"/>
     </row>
-    <row r="107" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>99</v>
       </c>
@@ -7699,7 +7702,7 @@
       <c r="F107" s="11"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>99</v>
       </c>
@@ -7712,7 +7715,7 @@
       <c r="F108" s="16"/>
       <c r="G108" s="17"/>
     </row>
-    <row r="109" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>99</v>
       </c>
@@ -7725,7 +7728,7 @@
       <c r="F109" s="11"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>99</v>
       </c>
@@ -7738,7 +7741,7 @@
       <c r="F110" s="16"/>
       <c r="G110" s="17"/>
     </row>
-    <row r="111" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>99</v>
       </c>
@@ -7751,7 +7754,7 @@
       <c r="F111" s="11"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>99</v>
       </c>
@@ -7764,7 +7767,7 @@
       <c r="F112" s="16"/>
       <c r="G112" s="17"/>
     </row>
-    <row r="113" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>99</v>
       </c>
@@ -7777,7 +7780,7 @@
       <c r="F113" s="11"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>99</v>
       </c>
@@ -7790,7 +7793,7 @@
       <c r="F114" s="16"/>
       <c r="G114" s="17"/>
     </row>
-    <row r="115" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>99</v>
       </c>
@@ -7803,7 +7806,7 @@
       <c r="F115" s="11"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
         <v>99</v>
       </c>
@@ -7816,7 +7819,7 @@
       <c r="F116" s="16"/>
       <c r="G116" s="17"/>
     </row>
-    <row r="117" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>99</v>
       </c>
@@ -7829,7 +7832,7 @@
       <c r="F117" s="11"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
         <v>99</v>
       </c>
@@ -7842,7 +7845,7 @@
       <c r="F118" s="16"/>
       <c r="G118" s="17"/>
     </row>
-    <row r="119" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>99</v>
       </c>
@@ -7855,7 +7858,7 @@
       <c r="F119" s="11"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
         <v>99</v>
       </c>
@@ -7868,7 +7871,7 @@
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
     </row>
-    <row r="121" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>99</v>
       </c>
@@ -7881,7 +7884,7 @@
       <c r="F121" s="11"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>99</v>
       </c>
@@ -7894,7 +7897,7 @@
       <c r="F122" s="16"/>
       <c r="G122" s="17"/>
     </row>
-    <row r="123" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>99</v>
       </c>
@@ -7907,7 +7910,7 @@
       <c r="F123" s="11"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>99</v>
       </c>
@@ -7920,7 +7923,7 @@
       <c r="F124" s="16"/>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>99</v>
       </c>
@@ -7933,7 +7936,7 @@
       <c r="F125" s="11"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>99</v>
       </c>
@@ -7946,7 +7949,7 @@
       <c r="F126" s="16"/>
       <c r="G126" s="17"/>
     </row>
-    <row r="127" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>136</v>
       </c>
@@ -7959,7 +7962,7 @@
       <c r="F127" s="11"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
         <v>136</v>
       </c>
@@ -7972,7 +7975,7 @@
       <c r="F128" s="16"/>
       <c r="G128" s="17"/>
     </row>
-    <row r="129" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>136</v>
       </c>
@@ -7985,7 +7988,7 @@
       <c r="F129" s="11"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
         <v>136</v>
       </c>
@@ -7998,7 +8001,7 @@
       <c r="F130" s="16"/>
       <c r="G130" s="17"/>
     </row>
-    <row r="131" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>136</v>
       </c>
@@ -8011,7 +8014,7 @@
       <c r="F131" s="11"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
         <v>136</v>
       </c>
@@ -8024,7 +8027,7 @@
       <c r="F132" s="16"/>
       <c r="G132" s="17"/>
     </row>
-    <row r="133" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>136</v>
       </c>
@@ -8037,7 +8040,7 @@
       <c r="F133" s="11"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>136</v>
       </c>
@@ -8050,7 +8053,7 @@
       <c r="F134" s="16"/>
       <c r="G134" s="17"/>
     </row>
-    <row r="135" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>136</v>
       </c>
@@ -8063,7 +8066,7 @@
       <c r="F135" s="11"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>136</v>
       </c>
@@ -8076,7 +8079,7 @@
       <c r="F136" s="16"/>
       <c r="G136" s="17"/>
     </row>
-    <row r="137" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>136</v>
       </c>
@@ -8089,7 +8092,7 @@
       <c r="F137" s="11"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
         <v>136</v>
       </c>
@@ -8102,7 +8105,7 @@
       <c r="F138" s="16"/>
       <c r="G138" s="17"/>
     </row>
-    <row r="139" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>136</v>
       </c>
@@ -8115,7 +8118,7 @@
       <c r="F139" s="11"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A140" s="13" t="s">
         <v>136</v>
       </c>
@@ -8128,7 +8131,7 @@
       <c r="F140" s="16"/>
       <c r="G140" s="17"/>
     </row>
-    <row r="141" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>136</v>
       </c>
@@ -8141,7 +8144,7 @@
       <c r="F141" s="11"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
         <v>136</v>
       </c>
@@ -8154,7 +8157,7 @@
       <c r="F142" s="16"/>
       <c r="G142" s="17"/>
     </row>
-    <row r="143" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>136</v>
       </c>
@@ -8167,7 +8170,7 @@
       <c r="F143" s="11"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
         <v>136</v>
       </c>
@@ -8180,7 +8183,7 @@
       <c r="F144" s="16"/>
       <c r="G144" s="17"/>
     </row>
-    <row r="145" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>136</v>
       </c>
@@ -8193,7 +8196,7 @@
       <c r="F145" s="11"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A146" s="13" t="s">
         <v>136</v>
       </c>
@@ -8206,7 +8209,7 @@
       <c r="F146" s="16"/>
       <c r="G146" s="17"/>
     </row>
-    <row r="147" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>136</v>
       </c>
@@ -8219,7 +8222,7 @@
       <c r="F147" s="11"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
         <v>136</v>
       </c>
@@ -8232,7 +8235,7 @@
       <c r="F148" s="16"/>
       <c r="G148" s="17"/>
     </row>
-    <row r="149" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>136</v>
       </c>
@@ -8245,7 +8248,7 @@
       <c r="F149" s="11"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A150" s="13" t="s">
         <v>136</v>
       </c>
@@ -8258,7 +8261,7 @@
       <c r="F150" s="16"/>
       <c r="G150" s="17"/>
     </row>
-    <row r="151" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>136</v>
       </c>
@@ -8297,7 +8300,7 @@
       <c r="F153" s="11"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A154" s="13" t="s">
         <v>136</v>
       </c>
@@ -8310,7 +8313,7 @@
       <c r="F154" s="16"/>
       <c r="G154" s="17"/>
     </row>
-    <row r="155" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>136</v>
       </c>
@@ -8323,7 +8326,7 @@
       <c r="F155" s="11"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>136</v>
       </c>
@@ -8336,7 +8339,7 @@
       <c r="F156" s="16"/>
       <c r="G156" s="17"/>
     </row>
-    <row r="157" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>136</v>
       </c>
@@ -8349,7 +8352,7 @@
       <c r="F157" s="11"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
         <v>136</v>
       </c>
@@ -8362,7 +8365,7 @@
       <c r="F158" s="16"/>
       <c r="G158" s="17"/>
     </row>
-    <row r="159" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>136</v>
       </c>
@@ -8375,7 +8378,7 @@
       <c r="F159" s="11"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
         <v>136</v>
       </c>
@@ -8388,7 +8391,7 @@
       <c r="F160" s="16"/>
       <c r="G160" s="17"/>
     </row>
-    <row r="161" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>136</v>
       </c>
@@ -8401,7 +8404,7 @@
       <c r="F161" s="11"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
         <v>136</v>
       </c>
@@ -8414,7 +8417,7 @@
       <c r="F162" s="16"/>
       <c r="G162" s="17"/>
     </row>
-    <row r="163" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>173</v>
       </c>
@@ -8427,7 +8430,7 @@
       <c r="F163" s="11"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
         <v>173</v>
       </c>
@@ -8440,7 +8443,7 @@
       <c r="F164" s="16"/>
       <c r="G164" s="17"/>
     </row>
-    <row r="165" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>173</v>
       </c>
@@ -8453,7 +8456,7 @@
       <c r="F165" s="11"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
         <v>173</v>
       </c>
@@ -8466,7 +8469,7 @@
       <c r="F166" s="16"/>
       <c r="G166" s="17"/>
     </row>
-    <row r="167" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>173</v>
       </c>
@@ -8479,7 +8482,7 @@
       <c r="F167" s="11"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A168" s="13" t="s">
         <v>173</v>
       </c>
@@ -8492,7 +8495,7 @@
       <c r="F168" s="16"/>
       <c r="G168" s="17"/>
     </row>
-    <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>173</v>
       </c>
@@ -8505,7 +8508,7 @@
       <c r="F169" s="11"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A170" s="13" t="s">
         <v>173</v>
       </c>
@@ -8518,7 +8521,7 @@
       <c r="F170" s="16"/>
       <c r="G170" s="17"/>
     </row>
-    <row r="171" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>173</v>
       </c>
@@ -8531,7 +8534,7 @@
       <c r="F171" s="11"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A172" s="13" t="s">
         <v>173</v>
       </c>
@@ -8544,7 +8547,7 @@
       <c r="F172" s="16"/>
       <c r="G172" s="17"/>
     </row>
-    <row r="173" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>173</v>
       </c>
@@ -8557,7 +8560,7 @@
       <c r="F173" s="11"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A174" s="13" t="s">
         <v>173</v>
       </c>
@@ -8570,7 +8573,7 @@
       <c r="F174" s="16"/>
       <c r="G174" s="17"/>
     </row>
-    <row r="175" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>173</v>
       </c>
@@ -8583,7 +8586,7 @@
       <c r="F175" s="11"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
         <v>173</v>
       </c>
@@ -8596,7 +8599,7 @@
       <c r="F176" s="16"/>
       <c r="G176" s="17"/>
     </row>
-    <row r="177" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>173</v>
       </c>
@@ -8609,7 +8612,7 @@
       <c r="F177" s="11"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A178" s="13" t="s">
         <v>173</v>
       </c>
@@ -8622,7 +8625,7 @@
       <c r="F178" s="16"/>
       <c r="G178" s="17"/>
     </row>
-    <row r="179" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>173</v>
       </c>
@@ -8635,7 +8638,7 @@
       <c r="F179" s="11"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
         <v>173</v>
       </c>
@@ -8648,7 +8651,7 @@
       <c r="F180" s="16"/>
       <c r="G180" s="17"/>
     </row>
-    <row r="181" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>173</v>
       </c>
@@ -8661,7 +8664,7 @@
       <c r="F181" s="11"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
         <v>173</v>
       </c>
@@ -8674,7 +8677,7 @@
       <c r="F182" s="16"/>
       <c r="G182" s="17"/>
     </row>
-    <row r="183" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>173</v>
       </c>
@@ -8687,7 +8690,7 @@
       <c r="F183" s="11"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A184" s="13" t="s">
         <v>173</v>
       </c>
@@ -8700,7 +8703,7 @@
       <c r="F184" s="16"/>
       <c r="G184" s="17"/>
     </row>
-    <row r="185" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>173</v>
       </c>
@@ -8713,7 +8716,7 @@
       <c r="F185" s="11"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
         <v>173</v>
       </c>
@@ -8726,7 +8729,7 @@
       <c r="F186" s="16"/>
       <c r="G186" s="17"/>
     </row>
-    <row r="187" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>173</v>
       </c>
@@ -8739,7 +8742,7 @@
       <c r="F187" s="11"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
         <v>173</v>
       </c>
@@ -8752,7 +8755,7 @@
       <c r="F188" s="16"/>
       <c r="G188" s="17"/>
     </row>
-    <row r="189" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>173</v>
       </c>
@@ -8765,7 +8768,7 @@
       <c r="F189" s="11"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
         <v>173</v>
       </c>
@@ -8778,7 +8781,7 @@
       <c r="F190" s="16"/>
       <c r="G190" s="17"/>
     </row>
-    <row r="191" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>173</v>
       </c>
@@ -8791,7 +8794,7 @@
       <c r="F191" s="11"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="s">
         <v>173</v>
       </c>
@@ -8804,7 +8807,7 @@
       <c r="F192" s="16"/>
       <c r="G192" s="17"/>
     </row>
-    <row r="193" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>173</v>
       </c>
@@ -8817,7 +8820,7 @@
       <c r="F193" s="11"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A194" s="13" t="s">
         <v>173</v>
       </c>
@@ -8830,7 +8833,7 @@
       <c r="F194" s="16"/>
       <c r="G194" s="17"/>
     </row>
-    <row r="195" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>173</v>
       </c>
@@ -8843,7 +8846,7 @@
       <c r="F195" s="11"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
         <v>173</v>
       </c>
@@ -8856,7 +8859,7 @@
       <c r="F196" s="16"/>
       <c r="G196" s="17"/>
     </row>
-    <row r="197" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>173</v>
       </c>
@@ -8880,7 +8883,7 @@
         <v>211</v>
       </c>
       <c r="D198" s="31">
-        <v>44685</v>
+        <v>44716</v>
       </c>
       <c r="E198" s="14" t="s">
         <v>212</v>
@@ -8949,8 +8952,7 @@
         <v>211</v>
       </c>
       <c r="D201" s="32">
-        <f ca="1">TODAY()</f>
-        <v>44718</v>
+        <v>44717</v>
       </c>
       <c r="E201" s="11" t="s">
         <v>220</v>
@@ -9035,8 +9037,7 @@
         <v>211</v>
       </c>
       <c r="D206" s="31">
-        <f ca="1">TODAY()</f>
-        <v>44718</v>
+        <v>44717</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>212</v>
@@ -9048,18 +9049,28 @@
         <v>490</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="88.5" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C207" s="10"/>
-      <c r="D207" s="32"/>
-      <c r="E207" s="11"/>
-      <c r="F207" s="11"/>
-      <c r="G207" s="12"/>
+      <c r="C207" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D207" s="32">
+        <v>44718</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F207" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G207" s="12" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A208" s="13" t="s">
@@ -9098,8 +9109,7 @@
         <v>211</v>
       </c>
       <c r="D210" s="31">
-        <f ca="1">TODAY()</f>
-        <v>44718</v>
+        <v>44717</v>
       </c>
       <c r="E210" s="16" t="s">
         <v>220</v>
@@ -9228,7 +9238,7 @@
       <c r="F219" s="11"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A220" s="13" t="s">
         <v>239</v>
       </c>
@@ -9241,7 +9251,7 @@
       <c r="F220" s="16"/>
       <c r="G220" s="17"/>
     </row>
-    <row r="221" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>239</v>
       </c>
@@ -9254,7 +9264,7 @@
       <c r="F221" s="11"/>
       <c r="G221" s="12"/>
     </row>
-    <row r="222" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -9267,7 +9277,7 @@
       <c r="F222" s="16"/>
       <c r="G222" s="17"/>
     </row>
-    <row r="223" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>239</v>
       </c>
@@ -9280,7 +9290,7 @@
       <c r="F223" s="11"/>
       <c r="G223" s="12"/>
     </row>
-    <row r="224" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A224" s="13" t="s">
         <v>239</v>
       </c>
@@ -9293,7 +9303,7 @@
       <c r="F224" s="16"/>
       <c r="G224" s="17"/>
     </row>
-    <row r="225" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>239</v>
       </c>
@@ -9306,7 +9316,7 @@
       <c r="F225" s="11"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A226" s="13" t="s">
         <v>239</v>
       </c>
@@ -9319,7 +9329,7 @@
       <c r="F226" s="16"/>
       <c r="G226" s="17"/>
     </row>
-    <row r="227" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>239</v>
       </c>
@@ -9332,7 +9342,7 @@
       <c r="F227" s="11"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A228" s="13" t="s">
         <v>239</v>
       </c>
@@ -9345,7 +9355,7 @@
       <c r="F228" s="16"/>
       <c r="G228" s="17"/>
     </row>
-    <row r="229" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>239</v>
       </c>
@@ -9358,7 +9368,7 @@
       <c r="F229" s="11"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A230" s="13" t="s">
         <v>239</v>
       </c>
@@ -9371,7 +9381,7 @@
       <c r="F230" s="16"/>
       <c r="G230" s="17"/>
     </row>
-    <row r="231" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>239</v>
       </c>
@@ -9384,7 +9394,7 @@
       <c r="F231" s="11"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A232" s="13" t="s">
         <v>239</v>
       </c>
@@ -9397,7 +9407,7 @@
       <c r="F232" s="16"/>
       <c r="G232" s="17"/>
     </row>
-    <row r="233" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>239</v>
       </c>
@@ -9410,7 +9420,7 @@
       <c r="F233" s="11"/>
       <c r="G233" s="12"/>
     </row>
-    <row r="234" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A234" s="13" t="s">
         <v>239</v>
       </c>
@@ -9423,7 +9433,7 @@
       <c r="F234" s="16"/>
       <c r="G234" s="17"/>
     </row>
-    <row r="235" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>239</v>
       </c>
@@ -9436,7 +9446,7 @@
       <c r="F235" s="11"/>
       <c r="G235" s="12"/>
     </row>
-    <row r="236" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A236" s="13" t="s">
         <v>239</v>
       </c>
@@ -9449,7 +9459,7 @@
       <c r="F236" s="16"/>
       <c r="G236" s="17"/>
     </row>
-    <row r="237" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>239</v>
       </c>
@@ -9462,7 +9472,7 @@
       <c r="F237" s="11"/>
       <c r="G237" s="12"/>
     </row>
-    <row r="238" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A238" s="13" t="s">
         <v>239</v>
       </c>
@@ -9475,7 +9485,7 @@
       <c r="F238" s="16"/>
       <c r="G238" s="17"/>
     </row>
-    <row r="239" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>239</v>
       </c>
@@ -9488,7 +9498,7 @@
       <c r="F239" s="11"/>
       <c r="G239" s="12"/>
     </row>
-    <row r="240" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A240" s="13" t="s">
         <v>239</v>
       </c>
@@ -9501,7 +9511,7 @@
       <c r="F240" s="16"/>
       <c r="G240" s="17"/>
     </row>
-    <row r="241" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>239</v>
       </c>
@@ -9514,7 +9524,7 @@
       <c r="F241" s="11"/>
       <c r="G241" s="12"/>
     </row>
-    <row r="242" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A242" s="13" t="s">
         <v>239</v>
       </c>
@@ -9527,7 +9537,7 @@
       <c r="F242" s="16"/>
       <c r="G242" s="17"/>
     </row>
-    <row r="243" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>239</v>
       </c>
@@ -9540,7 +9550,7 @@
       <c r="F243" s="11"/>
       <c r="G243" s="12"/>
     </row>
-    <row r="244" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A244" s="13" t="s">
         <v>239</v>
       </c>
@@ -9553,7 +9563,7 @@
       <c r="F244" s="16"/>
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>239</v>
       </c>
@@ -9566,7 +9576,7 @@
       <c r="F245" s="11"/>
       <c r="G245" s="12"/>
     </row>
-    <row r="246" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A246" s="13" t="s">
         <v>239</v>
       </c>
@@ -9579,7 +9589,7 @@
       <c r="F246" s="16"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>239</v>
       </c>
@@ -9592,7 +9602,7 @@
       <c r="F247" s="11"/>
       <c r="G247" s="12"/>
     </row>
-    <row r="248" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A248" s="13" t="s">
         <v>239</v>
       </c>
@@ -9605,7 +9615,7 @@
       <c r="F248" s="16"/>
       <c r="G248" s="17"/>
     </row>
-    <row r="249" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
         <v>239</v>
       </c>
@@ -9618,7 +9628,7 @@
       <c r="F249" s="11"/>
       <c r="G249" s="12"/>
     </row>
-    <row r="250" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A250" s="13" t="s">
         <v>239</v>
       </c>
@@ -9631,7 +9641,7 @@
       <c r="F250" s="16"/>
       <c r="G250" s="17"/>
     </row>
-    <row r="251" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>239</v>
       </c>
@@ -9644,7 +9654,7 @@
       <c r="F251" s="11"/>
       <c r="G251" s="12"/>
     </row>
-    <row r="252" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A252" s="13" t="s">
         <v>239</v>
       </c>
@@ -9657,7 +9667,7 @@
       <c r="F252" s="16"/>
       <c r="G252" s="17"/>
     </row>
-    <row r="253" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>239</v>
       </c>
@@ -9670,7 +9680,7 @@
       <c r="F253" s="11"/>
       <c r="G253" s="12"/>
     </row>
-    <row r="254" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A254" s="13" t="s">
         <v>239</v>
       </c>
@@ -9683,7 +9693,7 @@
       <c r="F254" s="16"/>
       <c r="G254" s="17"/>
     </row>
-    <row r="255" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>274</v>
       </c>
@@ -9696,7 +9706,7 @@
       <c r="F255" s="11"/>
       <c r="G255" s="12"/>
     </row>
-    <row r="256" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A256" s="13" t="s">
         <v>274</v>
       </c>
@@ -9709,7 +9719,7 @@
       <c r="F256" s="16"/>
       <c r="G256" s="17"/>
     </row>
-    <row r="257" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A257" s="9" t="s">
         <v>274</v>
       </c>
@@ -9722,7 +9732,7 @@
       <c r="F257" s="11"/>
       <c r="G257" s="12"/>
     </row>
-    <row r="258" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A258" s="13" t="s">
         <v>274</v>
       </c>
@@ -9735,7 +9745,7 @@
       <c r="F258" s="16"/>
       <c r="G258" s="17"/>
     </row>
-    <row r="259" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A259" s="9" t="s">
         <v>274</v>
       </c>
@@ -9748,7 +9758,7 @@
       <c r="F259" s="11"/>
       <c r="G259" s="12"/>
     </row>
-    <row r="260" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A260" s="13" t="s">
         <v>274</v>
       </c>
@@ -9761,7 +9771,7 @@
       <c r="F260" s="16"/>
       <c r="G260" s="17"/>
     </row>
-    <row r="261" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A261" s="9" t="s">
         <v>274</v>
       </c>
@@ -9774,7 +9784,7 @@
       <c r="F261" s="11"/>
       <c r="G261" s="12"/>
     </row>
-    <row r="262" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A262" s="13" t="s">
         <v>274</v>
       </c>
@@ -9787,7 +9797,7 @@
       <c r="F262" s="16"/>
       <c r="G262" s="17"/>
     </row>
-    <row r="263" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>274</v>
       </c>
@@ -9800,7 +9810,7 @@
       <c r="F263" s="11"/>
       <c r="G263" s="12"/>
     </row>
-    <row r="264" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A264" s="13" t="s">
         <v>274</v>
       </c>
@@ -9813,7 +9823,7 @@
       <c r="F264" s="16"/>
       <c r="G264" s="17"/>
     </row>
-    <row r="265" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>274</v>
       </c>
@@ -9826,7 +9836,7 @@
       <c r="F265" s="11"/>
       <c r="G265" s="12"/>
     </row>
-    <row r="266" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A266" s="13" t="s">
         <v>274</v>
       </c>
@@ -9839,7 +9849,7 @@
       <c r="F266" s="16"/>
       <c r="G266" s="17"/>
     </row>
-    <row r="267" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>274</v>
       </c>
@@ -9852,7 +9862,7 @@
       <c r="F267" s="11"/>
       <c r="G267" s="12"/>
     </row>
-    <row r="268" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A268" s="13" t="s">
         <v>274</v>
       </c>
@@ -9865,7 +9875,7 @@
       <c r="F268" s="16"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
         <v>274</v>
       </c>
@@ -9878,7 +9888,7 @@
       <c r="F269" s="11"/>
       <c r="G269" s="12"/>
     </row>
-    <row r="270" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A270" s="13" t="s">
         <v>274</v>
       </c>
@@ -9891,7 +9901,7 @@
       <c r="F270" s="16"/>
       <c r="G270" s="17"/>
     </row>
-    <row r="271" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
         <v>274</v>
       </c>
@@ -9904,7 +9914,7 @@
       <c r="F271" s="11"/>
       <c r="G271" s="12"/>
     </row>
-    <row r="272" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A272" s="13" t="s">
         <v>274</v>
       </c>
@@ -9917,7 +9927,7 @@
       <c r="F272" s="16"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
         <v>274</v>
       </c>
@@ -9930,7 +9940,7 @@
       <c r="F273" s="11"/>
       <c r="G273" s="12"/>
     </row>
-    <row r="274" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A274" s="13" t="s">
         <v>294</v>
       </c>
@@ -9943,7 +9953,7 @@
       <c r="F274" s="16"/>
       <c r="G274" s="17"/>
     </row>
-    <row r="275" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>294</v>
       </c>
@@ -9956,7 +9966,7 @@
       <c r="F275" s="11"/>
       <c r="G275" s="12"/>
     </row>
-    <row r="276" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A276" s="13" t="s">
         <v>294</v>
       </c>
@@ -9969,7 +9979,7 @@
       <c r="F276" s="16"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
         <v>294</v>
       </c>
@@ -9982,7 +9992,7 @@
       <c r="F277" s="11"/>
       <c r="G277" s="12"/>
     </row>
-    <row r="278" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A278" s="13" t="s">
         <v>294</v>
       </c>
@@ -9995,7 +10005,7 @@
       <c r="F278" s="16"/>
       <c r="G278" s="17"/>
     </row>
-    <row r="279" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
         <v>294</v>
       </c>
@@ -10008,7 +10018,7 @@
       <c r="F279" s="11"/>
       <c r="G279" s="12"/>
     </row>
-    <row r="280" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A280" s="13" t="s">
         <v>294</v>
       </c>
@@ -10021,7 +10031,7 @@
       <c r="F280" s="16"/>
       <c r="G280" s="17"/>
     </row>
-    <row r="281" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>294</v>
       </c>
@@ -10034,7 +10044,7 @@
       <c r="F281" s="11"/>
       <c r="G281" s="12"/>
     </row>
-    <row r="282" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A282" s="13" t="s">
         <v>294</v>
       </c>
@@ -10047,7 +10057,7 @@
       <c r="F282" s="16"/>
       <c r="G282" s="17"/>
     </row>
-    <row r="283" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
         <v>294</v>
       </c>
@@ -10060,7 +10070,7 @@
       <c r="F283" s="11"/>
       <c r="G283" s="12"/>
     </row>
-    <row r="284" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A284" s="13" t="s">
         <v>294</v>
       </c>
@@ -10073,7 +10083,7 @@
       <c r="F284" s="16"/>
       <c r="G284" s="17"/>
     </row>
-    <row r="285" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A285" s="9" t="s">
         <v>294</v>
       </c>
@@ -10086,7 +10096,7 @@
       <c r="F285" s="11"/>
       <c r="G285" s="12"/>
     </row>
-    <row r="286" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A286" s="13" t="s">
         <v>294</v>
       </c>
@@ -10099,7 +10109,7 @@
       <c r="F286" s="16"/>
       <c r="G286" s="17"/>
     </row>
-    <row r="287" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
         <v>294</v>
       </c>
@@ -10112,7 +10122,7 @@
       <c r="F287" s="11"/>
       <c r="G287" s="12"/>
     </row>
-    <row r="288" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A288" s="13" t="s">
         <v>294</v>
       </c>
@@ -10125,7 +10135,7 @@
       <c r="F288" s="16"/>
       <c r="G288" s="17"/>
     </row>
-    <row r="289" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A289" s="9" t="s">
         <v>294</v>
       </c>
@@ -10138,7 +10148,7 @@
       <c r="F289" s="11"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A290" s="13" t="s">
         <v>294</v>
       </c>
@@ -10151,7 +10161,7 @@
       <c r="F290" s="16"/>
       <c r="G290" s="17"/>
     </row>
-    <row r="291" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
         <v>294</v>
       </c>
@@ -10164,7 +10174,7 @@
       <c r="F291" s="11"/>
       <c r="G291" s="12"/>
     </row>
-    <row r="292" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A292" s="13" t="s">
         <v>294</v>
       </c>
@@ -10177,7 +10187,7 @@
       <c r="F292" s="16"/>
       <c r="G292" s="17"/>
     </row>
-    <row r="293" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
         <v>294</v>
       </c>
@@ -10190,7 +10200,7 @@
       <c r="F293" s="11"/>
       <c r="G293" s="12"/>
     </row>
-    <row r="294" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A294" s="13" t="s">
         <v>294</v>
       </c>
@@ -10203,7 +10213,7 @@
       <c r="F294" s="16"/>
       <c r="G294" s="17"/>
     </row>
-    <row r="295" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A295" s="9" t="s">
         <v>294</v>
       </c>
@@ -10216,7 +10226,7 @@
       <c r="F295" s="11"/>
       <c r="G295" s="12"/>
     </row>
-    <row r="296" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A296" s="13" t="s">
         <v>294</v>
       </c>
@@ -10229,7 +10239,7 @@
       <c r="F296" s="16"/>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
         <v>294</v>
       </c>
@@ -10242,7 +10252,7 @@
       <c r="F297" s="11"/>
       <c r="G297" s="12"/>
     </row>
-    <row r="298" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A298" s="13" t="s">
         <v>294</v>
       </c>
@@ -10255,7 +10265,7 @@
       <c r="F298" s="16"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A299" s="9" t="s">
         <v>294</v>
       </c>
@@ -10268,7 +10278,7 @@
       <c r="F299" s="11"/>
       <c r="G299" s="12"/>
     </row>
-    <row r="300" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A300" s="13" t="s">
         <v>294</v>
       </c>
@@ -10281,7 +10291,7 @@
       <c r="F300" s="16"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A301" s="9" t="s">
         <v>294</v>
       </c>
@@ -10294,7 +10304,7 @@
       <c r="F301" s="11"/>
       <c r="G301" s="12"/>
     </row>
-    <row r="302" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A302" s="13" t="s">
         <v>294</v>
       </c>
@@ -10307,7 +10317,7 @@
       <c r="F302" s="16"/>
       <c r="G302" s="17"/>
     </row>
-    <row r="303" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A303" s="9" t="s">
         <v>294</v>
       </c>
@@ -10320,7 +10330,7 @@
       <c r="F303" s="11"/>
       <c r="G303" s="12"/>
     </row>
-    <row r="304" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A304" s="13" t="s">
         <v>294</v>
       </c>
@@ -10333,7 +10343,7 @@
       <c r="F304" s="16"/>
       <c r="G304" s="17"/>
     </row>
-    <row r="305" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A305" s="9" t="s">
         <v>294</v>
       </c>
@@ -10346,7 +10356,7 @@
       <c r="F305" s="11"/>
       <c r="G305" s="12"/>
     </row>
-    <row r="306" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A306" s="13" t="s">
         <v>294</v>
       </c>
@@ -10359,7 +10369,7 @@
       <c r="F306" s="16"/>
       <c r="G306" s="17"/>
     </row>
-    <row r="307" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A307" s="9" t="s">
         <v>294</v>
       </c>
@@ -10372,7 +10382,7 @@
       <c r="F307" s="11"/>
       <c r="G307" s="12"/>
     </row>
-    <row r="308" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A308" s="13" t="s">
         <v>294</v>
       </c>
@@ -10385,7 +10395,7 @@
       <c r="F308" s="16"/>
       <c r="G308" s="17"/>
     </row>
-    <row r="309" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A309" s="9" t="s">
         <v>294</v>
       </c>
@@ -10398,7 +10408,7 @@
       <c r="F309" s="11"/>
       <c r="G309" s="12"/>
     </row>
-    <row r="310" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A310" s="13" t="s">
         <v>294</v>
       </c>
@@ -10411,7 +10421,7 @@
       <c r="F310" s="16"/>
       <c r="G310" s="17"/>
     </row>
-    <row r="311" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A311" s="9" t="s">
         <v>294</v>
       </c>
@@ -10424,7 +10434,7 @@
       <c r="F311" s="11"/>
       <c r="G311" s="12"/>
     </row>
-    <row r="312" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A312" s="13" t="s">
         <v>333</v>
       </c>
@@ -10447,7 +10457,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A313" s="9" t="s">
         <v>333</v>
       </c>
@@ -10470,7 +10480,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A314" s="13" t="s">
         <v>333</v>
       </c>
@@ -10493,7 +10503,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
         <v>333</v>
       </c>
@@ -10516,7 +10526,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -10539,7 +10549,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
         <v>333</v>
       </c>
@@ -10562,7 +10572,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A318" s="13" t="s">
         <v>333</v>
       </c>
@@ -10585,7 +10595,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
         <v>333</v>
       </c>
@@ -10608,7 +10618,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A320" s="13" t="s">
         <v>333</v>
       </c>
@@ -10621,7 +10631,7 @@
       <c r="F320" s="16"/>
       <c r="G320" s="17"/>
     </row>
-    <row r="321" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A321" s="9" t="s">
         <v>333</v>
       </c>
@@ -10634,7 +10644,7 @@
       <c r="F321" s="11"/>
       <c r="G321" s="12"/>
     </row>
-    <row r="322" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A322" s="13" t="s">
         <v>333</v>
       </c>
@@ -10647,7 +10657,7 @@
       <c r="F322" s="16"/>
       <c r="G322" s="17"/>
     </row>
-    <row r="323" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A323" s="9" t="s">
         <v>333</v>
       </c>
@@ -10660,7 +10670,7 @@
       <c r="F323" s="11"/>
       <c r="G323" s="12"/>
     </row>
-    <row r="324" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A324" s="13" t="s">
         <v>333</v>
       </c>
@@ -10673,7 +10683,7 @@
       <c r="F324" s="16"/>
       <c r="G324" s="17"/>
     </row>
-    <row r="325" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A325" s="9" t="s">
         <v>333</v>
       </c>
@@ -10686,7 +10696,7 @@
       <c r="F325" s="11"/>
       <c r="G325" s="12"/>
     </row>
-    <row r="326" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A326" s="13" t="s">
         <v>333</v>
       </c>
@@ -10699,7 +10709,7 @@
       <c r="F326" s="16"/>
       <c r="G326" s="17"/>
     </row>
-    <row r="327" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A327" s="9" t="s">
         <v>333</v>
       </c>
@@ -10712,7 +10722,7 @@
       <c r="F327" s="11"/>
       <c r="G327" s="12"/>
     </row>
-    <row r="328" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A328" s="13" t="s">
         <v>333</v>
       </c>
@@ -10725,7 +10735,7 @@
       <c r="F328" s="16"/>
       <c r="G328" s="17"/>
     </row>
-    <row r="329" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A329" s="9" t="s">
         <v>333</v>
       </c>
@@ -10738,7 +10748,7 @@
       <c r="F329" s="11"/>
       <c r="G329" s="12"/>
     </row>
-    <row r="330" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A330" s="13" t="s">
         <v>360</v>
       </c>
@@ -10751,7 +10761,7 @@
       <c r="F330" s="16"/>
       <c r="G330" s="17"/>
     </row>
-    <row r="331" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A331" s="9" t="s">
         <v>360</v>
       </c>
@@ -10764,7 +10774,7 @@
       <c r="F331" s="11"/>
       <c r="G331" s="12"/>
     </row>
-    <row r="332" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A332" s="13" t="s">
         <v>360</v>
       </c>
@@ -10777,7 +10787,7 @@
       <c r="F332" s="16"/>
       <c r="G332" s="17"/>
     </row>
-    <row r="333" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A333" s="9" t="s">
         <v>360</v>
       </c>
@@ -10790,7 +10800,7 @@
       <c r="F333" s="11"/>
       <c r="G333" s="12"/>
     </row>
-    <row r="334" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A334" s="13" t="s">
         <v>360</v>
       </c>
@@ -10803,7 +10813,7 @@
       <c r="F334" s="16"/>
       <c r="G334" s="17"/>
     </row>
-    <row r="335" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A335" s="9" t="s">
         <v>360</v>
       </c>
@@ -10816,7 +10826,7 @@
       <c r="F335" s="11"/>
       <c r="G335" s="12"/>
     </row>
-    <row r="336" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A336" s="13" t="s">
         <v>360</v>
       </c>
@@ -10829,7 +10839,7 @@
       <c r="F336" s="16"/>
       <c r="G336" s="17"/>
     </row>
-    <row r="337" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A337" s="9" t="s">
         <v>360</v>
       </c>
@@ -10842,7 +10852,7 @@
       <c r="F337" s="11"/>
       <c r="G337" s="12"/>
     </row>
-    <row r="338" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A338" s="13" t="s">
         <v>360</v>
       </c>
@@ -10855,7 +10865,7 @@
       <c r="F338" s="16"/>
       <c r="G338" s="17"/>
     </row>
-    <row r="339" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A339" s="9" t="s">
         <v>360</v>
       </c>
@@ -10868,7 +10878,7 @@
       <c r="F339" s="11"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A340" s="13" t="s">
         <v>360</v>
       </c>
@@ -10881,7 +10891,7 @@
       <c r="F340" s="16"/>
       <c r="G340" s="17"/>
     </row>
-    <row r="341" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A341" s="9" t="s">
         <v>360</v>
       </c>
@@ -10894,7 +10904,7 @@
       <c r="F341" s="11"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A342" s="13" t="s">
         <v>360</v>
       </c>
@@ -10907,7 +10917,7 @@
       <c r="F342" s="16"/>
       <c r="G342" s="17"/>
     </row>
-    <row r="343" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A343" s="9" t="s">
         <v>360</v>
       </c>
@@ -10920,7 +10930,7 @@
       <c r="F343" s="11"/>
       <c r="G343" s="12"/>
     </row>
-    <row r="344" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A344" s="13" t="s">
         <v>360</v>
       </c>
@@ -10933,7 +10943,7 @@
       <c r="F344" s="16"/>
       <c r="G344" s="17"/>
     </row>
-    <row r="345" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A345" s="9" t="s">
         <v>360</v>
       </c>
@@ -10946,7 +10956,7 @@
       <c r="F345" s="11"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A346" s="13" t="s">
         <v>360</v>
       </c>
@@ -10959,7 +10969,7 @@
       <c r="F346" s="16"/>
       <c r="G346" s="17"/>
     </row>
-    <row r="347" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A347" s="9" t="s">
         <v>360</v>
       </c>
@@ -10972,7 +10982,7 @@
       <c r="F347" s="11"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A348" s="13" t="s">
         <v>360</v>
       </c>
@@ -10985,7 +10995,7 @@
       <c r="F348" s="16"/>
       <c r="G348" s="17"/>
     </row>
-    <row r="349" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A349" s="9" t="s">
         <v>360</v>
       </c>
@@ -10998,7 +11008,7 @@
       <c r="F349" s="11"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A350" s="13" t="s">
         <v>360</v>
       </c>
@@ -11011,7 +11021,7 @@
       <c r="F350" s="16"/>
       <c r="G350" s="17"/>
     </row>
-    <row r="351" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A351" s="9" t="s">
         <v>360</v>
       </c>
@@ -11024,7 +11034,7 @@
       <c r="F351" s="11"/>
       <c r="G351" s="12"/>
     </row>
-    <row r="352" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A352" s="13" t="s">
         <v>360</v>
       </c>
@@ -11037,7 +11047,7 @@
       <c r="F352" s="16"/>
       <c r="G352" s="17"/>
     </row>
-    <row r="353" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
         <v>360</v>
       </c>
@@ -11050,7 +11060,7 @@
       <c r="F353" s="11"/>
       <c r="G353" s="12"/>
     </row>
-    <row r="354" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A354" s="13" t="s">
         <v>360</v>
       </c>
@@ -11063,7 +11073,7 @@
       <c r="F354" s="16"/>
       <c r="G354" s="17"/>
     </row>
-    <row r="355" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A355" s="9" t="s">
         <v>360</v>
       </c>
@@ -11076,7 +11086,7 @@
       <c r="F355" s="11"/>
       <c r="G355" s="12"/>
     </row>
-    <row r="356" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A356" s="13" t="s">
         <v>360</v>
       </c>
@@ -11089,7 +11099,7 @@
       <c r="F356" s="16"/>
       <c r="G356" s="17"/>
     </row>
-    <row r="357" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
         <v>360</v>
       </c>
@@ -11102,7 +11112,7 @@
       <c r="F357" s="11"/>
       <c r="G357" s="12"/>
     </row>
-    <row r="358" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A358" s="13" t="s">
         <v>360</v>
       </c>
@@ -11115,7 +11125,7 @@
       <c r="F358" s="16"/>
       <c r="G358" s="17"/>
     </row>
-    <row r="359" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
         <v>360</v>
       </c>
@@ -11128,7 +11138,7 @@
       <c r="F359" s="11"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A360" s="13" t="s">
         <v>360</v>
       </c>
@@ -11141,7 +11151,7 @@
       <c r="F360" s="16"/>
       <c r="G360" s="17"/>
     </row>
-    <row r="361" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
         <v>360</v>
       </c>
@@ -11154,7 +11164,7 @@
       <c r="F361" s="11"/>
       <c r="G361" s="12"/>
     </row>
-    <row r="362" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A362" s="13" t="s">
         <v>360</v>
       </c>
@@ -11167,7 +11177,7 @@
       <c r="F362" s="16"/>
       <c r="G362" s="17"/>
     </row>
-    <row r="363" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
         <v>360</v>
       </c>
@@ -11180,7 +11190,7 @@
       <c r="F363" s="11"/>
       <c r="G363" s="12"/>
     </row>
-    <row r="364" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A364" s="13" t="s">
         <v>360</v>
       </c>
@@ -11193,7 +11203,7 @@
       <c r="F364" s="16"/>
       <c r="G364" s="17"/>
     </row>
-    <row r="365" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
         <v>360</v>
       </c>
@@ -11206,7 +11216,7 @@
       <c r="F365" s="11"/>
       <c r="G365" s="12"/>
     </row>
-    <row r="366" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A366" s="13" t="s">
         <v>360</v>
       </c>
@@ -11219,7 +11229,7 @@
       <c r="F366" s="16"/>
       <c r="G366" s="17"/>
     </row>
-    <row r="367" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
         <v>360</v>
       </c>
@@ -11232,7 +11242,7 @@
       <c r="F367" s="11"/>
       <c r="G367" s="12"/>
     </row>
-    <row r="368" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A368" s="13" t="s">
         <v>360</v>
       </c>
@@ -11245,7 +11255,7 @@
       <c r="F368" s="16"/>
       <c r="G368" s="17"/>
     </row>
-    <row r="369" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A369" s="9" t="s">
         <v>360</v>
       </c>
@@ -11258,7 +11268,7 @@
       <c r="F369" s="11"/>
       <c r="G369" s="12"/>
     </row>
-    <row r="370" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A370" s="13" t="s">
         <v>360</v>
       </c>
@@ -11271,7 +11281,7 @@
       <c r="F370" s="16"/>
       <c r="G370" s="17"/>
     </row>
-    <row r="371" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A371" s="9" t="s">
         <v>360</v>
       </c>
@@ -11284,7 +11294,7 @@
       <c r="F371" s="11"/>
       <c r="G371" s="12"/>
     </row>
-    <row r="372" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A372" s="13" t="s">
         <v>360</v>
       </c>
@@ -11297,7 +11307,7 @@
       <c r="F372" s="16"/>
       <c r="G372" s="17"/>
     </row>
-    <row r="373" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A373" s="9" t="s">
         <v>360</v>
       </c>
@@ -11310,7 +11320,7 @@
       <c r="F373" s="11"/>
       <c r="G373" s="12"/>
     </row>
-    <row r="374" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A374" s="13" t="s">
         <v>404</v>
       </c>
@@ -11323,7 +11333,7 @@
       <c r="F374" s="16"/>
       <c r="G374" s="17"/>
     </row>
-    <row r="375" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A375" s="9" t="s">
         <v>404</v>
       </c>
@@ -11336,7 +11346,7 @@
       <c r="F375" s="11"/>
       <c r="G375" s="12"/>
     </row>
-    <row r="376" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A376" s="13" t="s">
         <v>404</v>
       </c>
@@ -11349,7 +11359,7 @@
       <c r="F376" s="16"/>
       <c r="G376" s="17"/>
     </row>
-    <row r="377" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A377" s="9" t="s">
         <v>404</v>
       </c>
@@ -11362,7 +11372,7 @@
       <c r="F377" s="11"/>
       <c r="G377" s="12"/>
     </row>
-    <row r="378" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A378" s="13" t="s">
         <v>404</v>
       </c>
@@ -11375,7 +11385,7 @@
       <c r="F378" s="16"/>
       <c r="G378" s="17"/>
     </row>
-    <row r="379" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
         <v>404</v>
       </c>
@@ -11388,7 +11398,7 @@
       <c r="F379" s="11"/>
       <c r="G379" s="12"/>
     </row>
-    <row r="380" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A380" s="13" t="s">
         <v>410</v>
       </c>
@@ -11401,7 +11411,7 @@
       <c r="F380" s="16"/>
       <c r="G380" s="17"/>
     </row>
-    <row r="381" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A381" s="9" t="s">
         <v>410</v>
       </c>
@@ -11414,7 +11424,7 @@
       <c r="F381" s="11"/>
       <c r="G381" s="12"/>
     </row>
-    <row r="382" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A382" s="13" t="s">
         <v>410</v>
       </c>
@@ -11437,7 +11447,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
         <v>410</v>
       </c>
@@ -11460,7 +11470,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A384" s="13" t="s">
         <v>410</v>
       </c>
@@ -11483,7 +11493,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
         <v>410</v>
       </c>
@@ -11496,7 +11506,7 @@
       <c r="F385" s="11"/>
       <c r="G385" s="12"/>
     </row>
-    <row r="386" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A386" s="13" t="s">
         <v>410</v>
       </c>
@@ -11509,7 +11519,7 @@
       <c r="F386" s="16"/>
       <c r="G386" s="17"/>
     </row>
-    <row r="387" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
         <v>410</v>
       </c>
@@ -11522,7 +11532,7 @@
       <c r="F387" s="11"/>
       <c r="G387" s="12"/>
     </row>
-    <row r="388" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A388" s="13" t="s">
         <v>410</v>
       </c>
@@ -11545,7 +11555,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
         <v>410</v>
       </c>
@@ -11566,7 +11576,7 @@
       </c>
       <c r="G389" s="12"/>
     </row>
-    <row r="390" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A390" s="13" t="s">
         <v>410</v>
       </c>
@@ -11579,7 +11589,7 @@
       <c r="F390" s="16"/>
       <c r="G390" s="17"/>
     </row>
-    <row r="391" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
         <v>410</v>
       </c>
@@ -11592,7 +11602,7 @@
       <c r="F391" s="11"/>
       <c r="G391" s="12"/>
     </row>
-    <row r="392" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A392" s="13" t="s">
         <v>410</v>
       </c>
@@ -11605,7 +11615,7 @@
       <c r="F392" s="16"/>
       <c r="G392" s="17"/>
     </row>
-    <row r="393" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
         <v>410</v>
       </c>
@@ -11618,7 +11628,7 @@
       <c r="F393" s="11"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A394" s="13" t="s">
         <v>410</v>
       </c>
@@ -11631,7 +11641,7 @@
       <c r="F394" s="16"/>
       <c r="G394" s="17"/>
     </row>
-    <row r="395" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
         <v>410</v>
       </c>
@@ -11644,7 +11654,7 @@
       <c r="F395" s="11"/>
       <c r="G395" s="12"/>
     </row>
-    <row r="396" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A396" s="13" t="s">
         <v>410</v>
       </c>
@@ -11657,7 +11667,7 @@
       <c r="F396" s="16"/>
       <c r="G396" s="17"/>
     </row>
-    <row r="397" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
         <v>410</v>
       </c>
@@ -11670,7 +11680,7 @@
       <c r="F397" s="11"/>
       <c r="G397" s="12"/>
     </row>
-    <row r="398" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A398" s="13" t="s">
         <v>410</v>
       </c>
@@ -11683,7 +11693,7 @@
       <c r="F398" s="16"/>
       <c r="G398" s="17"/>
     </row>
-    <row r="399" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
         <v>410</v>
       </c>
@@ -11696,7 +11706,7 @@
       <c r="F399" s="11"/>
       <c r="G399" s="12"/>
     </row>
-    <row r="400" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A400" s="13" t="s">
         <v>410</v>
       </c>
@@ -11709,7 +11719,7 @@
       <c r="F400" s="16"/>
       <c r="G400" s="17"/>
     </row>
-    <row r="401" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A401" s="9" t="s">
         <v>410</v>
       </c>
@@ -11722,7 +11732,7 @@
       <c r="F401" s="11"/>
       <c r="G401" s="12"/>
     </row>
-    <row r="402" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A402" s="13" t="s">
         <v>410</v>
       </c>
@@ -11735,7 +11745,7 @@
       <c r="F402" s="16"/>
       <c r="G402" s="17"/>
     </row>
-    <row r="403" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
         <v>410</v>
       </c>
@@ -11748,7 +11758,7 @@
       <c r="F403" s="11"/>
       <c r="G403" s="12"/>
     </row>
-    <row r="404" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A404" s="13" t="s">
         <v>410</v>
       </c>
@@ -11761,7 +11771,7 @@
       <c r="F404" s="16"/>
       <c r="G404" s="17"/>
     </row>
-    <row r="405" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A405" s="9" t="s">
         <v>410</v>
       </c>
@@ -11774,7 +11784,7 @@
       <c r="F405" s="11"/>
       <c r="G405" s="12"/>
     </row>
-    <row r="406" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A406" s="13" t="s">
         <v>410</v>
       </c>
@@ -11787,7 +11797,7 @@
       <c r="F406" s="16"/>
       <c r="G406" s="17"/>
     </row>
-    <row r="407" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
         <v>410</v>
       </c>
@@ -11800,7 +11810,7 @@
       <c r="F407" s="11"/>
       <c r="G407" s="12"/>
     </row>
-    <row r="408" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A408" s="13" t="s">
         <v>410</v>
       </c>
@@ -11813,7 +11823,7 @@
       <c r="F408" s="16"/>
       <c r="G408" s="17"/>
     </row>
-    <row r="409" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A409" s="9" t="s">
         <v>410</v>
       </c>
@@ -11826,7 +11836,7 @@
       <c r="F409" s="11"/>
       <c r="G409" s="12"/>
     </row>
-    <row r="410" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A410" s="13" t="s">
         <v>410</v>
       </c>
@@ -11839,7 +11849,7 @@
       <c r="F410" s="16"/>
       <c r="G410" s="17"/>
     </row>
-    <row r="411" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A411" s="9" t="s">
         <v>410</v>
       </c>
@@ -11852,7 +11862,7 @@
       <c r="F411" s="11"/>
       <c r="G411" s="12"/>
     </row>
-    <row r="412" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A412" s="13" t="s">
         <v>410</v>
       </c>
@@ -11865,7 +11875,7 @@
       <c r="F412" s="16"/>
       <c r="G412" s="17"/>
     </row>
-    <row r="413" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A413" s="9" t="s">
         <v>410</v>
       </c>
@@ -11878,7 +11888,7 @@
       <c r="F413" s="11"/>
       <c r="G413" s="12"/>
     </row>
-    <row r="414" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A414" s="13" t="s">
         <v>410</v>
       </c>
@@ -11891,7 +11901,7 @@
       <c r="F414" s="16"/>
       <c r="G414" s="17"/>
     </row>
-    <row r="415" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A415" s="9" t="s">
         <v>410</v>
       </c>
@@ -11904,7 +11914,7 @@
       <c r="F415" s="11"/>
       <c r="G415" s="12"/>
     </row>
-    <row r="416" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A416" s="13" t="s">
         <v>410</v>
       </c>
@@ -11917,7 +11927,7 @@
       <c r="F416" s="16"/>
       <c r="G416" s="17"/>
     </row>
-    <row r="417" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A417" s="9" t="s">
         <v>410</v>
       </c>
@@ -11930,7 +11940,7 @@
       <c r="F417" s="11"/>
       <c r="G417" s="12"/>
     </row>
-    <row r="418" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A418" s="13" t="s">
         <v>410</v>
       </c>
@@ -11943,7 +11953,7 @@
       <c r="F418" s="16"/>
       <c r="G418" s="17"/>
     </row>
-    <row r="419" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A419" s="9" t="s">
         <v>410</v>
       </c>
@@ -11956,7 +11966,7 @@
       <c r="F419" s="11"/>
       <c r="G419" s="12"/>
     </row>
-    <row r="420" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A420" s="13" t="s">
         <v>410</v>
       </c>
@@ -11969,7 +11979,7 @@
       <c r="F420" s="16"/>
       <c r="G420" s="17"/>
     </row>
-    <row r="421" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A421" s="9" t="s">
         <v>410</v>
       </c>
@@ -11982,7 +11992,7 @@
       <c r="F421" s="11"/>
       <c r="G421" s="12"/>
     </row>
-    <row r="422" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A422" s="13" t="s">
         <v>410</v>
       </c>
@@ -11995,7 +12005,7 @@
       <c r="F422" s="16"/>
       <c r="G422" s="17"/>
     </row>
-    <row r="423" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A423" s="9" t="s">
         <v>410</v>
       </c>
@@ -12008,7 +12018,7 @@
       <c r="F423" s="11"/>
       <c r="G423" s="12"/>
     </row>
-    <row r="424" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A424" s="13" t="s">
         <v>410</v>
       </c>
@@ -12021,7 +12031,7 @@
       <c r="F424" s="16"/>
       <c r="G424" s="17"/>
     </row>
-    <row r="425" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A425" s="9" t="s">
         <v>410</v>
       </c>
@@ -12034,7 +12044,7 @@
       <c r="F425" s="11"/>
       <c r="G425" s="12"/>
     </row>
-    <row r="426" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A426" s="13" t="s">
         <v>410</v>
       </c>
@@ -12047,7 +12057,7 @@
       <c r="F426" s="16"/>
       <c r="G426" s="17"/>
     </row>
-    <row r="427" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A427" s="9" t="s">
         <v>410</v>
       </c>
@@ -12060,7 +12070,7 @@
       <c r="F427" s="11"/>
       <c r="G427" s="12"/>
     </row>
-    <row r="428" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A428" s="13" t="s">
         <v>410</v>
       </c>
@@ -12073,7 +12083,7 @@
       <c r="F428" s="16"/>
       <c r="G428" s="17"/>
     </row>
-    <row r="429" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A429" s="9" t="s">
         <v>410</v>
       </c>
@@ -12086,7 +12096,7 @@
       <c r="F429" s="11"/>
       <c r="G429" s="12"/>
     </row>
-    <row r="430" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A430" s="13" t="s">
         <v>410</v>
       </c>
@@ -12099,7 +12109,7 @@
       <c r="F430" s="16"/>
       <c r="G430" s="17"/>
     </row>
-    <row r="431" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A431" s="9" t="s">
         <v>410</v>
       </c>
@@ -12112,7 +12122,7 @@
       <c r="F431" s="11"/>
       <c r="G431" s="12"/>
     </row>
-    <row r="432" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A432" s="13" t="s">
         <v>410</v>
       </c>
@@ -12125,7 +12135,7 @@
       <c r="F432" s="16"/>
       <c r="G432" s="17"/>
     </row>
-    <row r="433" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A433" s="9" t="s">
         <v>410</v>
       </c>
@@ -12138,7 +12148,7 @@
       <c r="F433" s="11"/>
       <c r="G433" s="12"/>
     </row>
-    <row r="434" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A434" s="13" t="s">
         <v>410</v>
       </c>
@@ -12151,7 +12161,7 @@
       <c r="F434" s="16"/>
       <c r="G434" s="17"/>
     </row>
-    <row r="435" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A435" s="9" t="s">
         <v>410</v>
       </c>
@@ -12164,7 +12174,7 @@
       <c r="F435" s="11"/>
       <c r="G435" s="12"/>
     </row>
-    <row r="436" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A436" s="13" t="s">
         <v>410</v>
       </c>
@@ -12177,7 +12187,7 @@
       <c r="F436" s="16"/>
       <c r="G436" s="17"/>
     </row>
-    <row r="437" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A437" s="9" t="s">
         <v>410</v>
       </c>
@@ -12190,7 +12200,7 @@
       <c r="F437" s="11"/>
       <c r="G437" s="12"/>
     </row>
-    <row r="438" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A438" s="13" t="s">
         <v>410</v>
       </c>
@@ -12203,7 +12213,7 @@
       <c r="F438" s="16"/>
       <c r="G438" s="17"/>
     </row>
-    <row r="439" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A439" s="9" t="s">
         <v>410</v>
       </c>
@@ -12216,7 +12226,7 @@
       <c r="F439" s="11"/>
       <c r="G439" s="12"/>
     </row>
-    <row r="440" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A440" s="13" t="s">
         <v>474</v>
       </c>
@@ -12229,7 +12239,7 @@
       <c r="F440" s="16"/>
       <c r="G440" s="17"/>
     </row>
-    <row r="441" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A441" s="9" t="s">
         <v>474</v>
       </c>
@@ -12242,7 +12252,7 @@
       <c r="F441" s="11"/>
       <c r="G441" s="12"/>
     </row>
-    <row r="442" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A442" s="13" t="s">
         <v>474</v>
       </c>
@@ -12255,7 +12265,7 @@
       <c r="F442" s="16"/>
       <c r="G442" s="17"/>
     </row>
-    <row r="443" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A443" s="9" t="s">
         <v>474</v>
       </c>
@@ -12268,7 +12278,7 @@
       <c r="F443" s="11"/>
       <c r="G443" s="12"/>
     </row>
-    <row r="444" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A444" s="13" t="s">
         <v>474</v>
       </c>
@@ -12281,7 +12291,7 @@
       <c r="F444" s="16"/>
       <c r="G444" s="17"/>
     </row>
-    <row r="445" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A445" s="9" t="s">
         <v>474</v>
       </c>
@@ -12294,7 +12304,7 @@
       <c r="F445" s="11"/>
       <c r="G445" s="12"/>
     </row>
-    <row r="446" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A446" s="13" t="s">
         <v>474</v>
       </c>
@@ -12307,7 +12317,7 @@
       <c r="F446" s="16"/>
       <c r="G446" s="17"/>
     </row>
-    <row r="447" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A447" s="9" t="s">
         <v>474</v>
       </c>
@@ -12320,7 +12330,7 @@
       <c r="F447" s="11"/>
       <c r="G447" s="12"/>
     </row>
-    <row r="448" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A448" s="13" t="s">
         <v>474</v>
       </c>
@@ -12333,7 +12343,7 @@
       <c r="F448" s="16"/>
       <c r="G448" s="17"/>
     </row>
-    <row r="449" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A449" s="9" t="s">
         <v>474</v>
       </c>
@@ -12357,7 +12367,7 @@
       <c r="F450" s="16"/>
       <c r="G450" s="17"/>
     </row>
-    <row r="451" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A451" s="26"/>
       <c r="B451" s="27" t="s">
         <v>486</v>
